--- a/workspace/i2b2.2008/data/04-30-AmbertVsCui.xlsx
+++ b/workspace/i2b2.2008/data/04-30-AmbertVsCui.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="12435" windowHeight="6945" tabRatio="668" firstSheet="1" activeTab="8"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="12435" windowHeight="6945" tabRatio="668" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="05-09 cutoffVsF1" sheetId="9" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="Sheet1" sheetId="5" r:id="rId7"/>
     <sheet name="Sheet2" sheetId="6" r:id="rId8"/>
     <sheet name="05-09 eval_test" sheetId="10" r:id="rId9"/>
+    <sheet name="vecVsKern0.07" sheetId="12" r:id="rId10"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="123">
   <si>
     <t>label</t>
   </si>
@@ -373,6 +374,24 @@
   </si>
   <si>
     <t>word+concept</t>
+  </si>
+  <si>
+    <t>asthma</t>
+  </si>
+  <si>
+    <t>chf</t>
+  </si>
+  <si>
+    <t>depression</t>
+  </si>
+  <si>
+    <t>gallstones</t>
+  </si>
+  <si>
+    <t>gout</t>
+  </si>
+  <si>
+    <t>label_id</t>
   </si>
 </sst>
 </file>
@@ -1183,23 +1202,23 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="97892992"/>
-        <c:axId val="97891456"/>
+        <c:axId val="82107008"/>
+        <c:axId val="92344704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="97892992"/>
+        <c:axId val="82107008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97891456"/>
+        <c:crossAx val="92344704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="97891456"/>
+        <c:axId val="92344704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1209,7 +1228,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="97892992"/>
+        <c:crossAx val="82107008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1222,7 +1241,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1621,24 +1640,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="95860992"/>
-        <c:axId val="95866880"/>
+        <c:axId val="92399104"/>
+        <c:axId val="92400640"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="95860992"/>
+        <c:axId val="92399104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95866880"/>
+        <c:crossAx val="92400640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="95866880"/>
+        <c:axId val="92400640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1648,7 +1667,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95860992"/>
+        <c:crossAx val="92399104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1661,7 +1680,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1671,7 +1690,9 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="de-DE"/>
   <c:chart>
-    <c:title/>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -1810,23 +1831,23 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="84249600"/>
-        <c:axId val="84251392"/>
+        <c:axId val="92465792"/>
+        <c:axId val="92488064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="84249600"/>
+        <c:axId val="92465792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84251392"/>
+        <c:crossAx val="92488064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="84251392"/>
+        <c:axId val="92488064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1836,19 +1857,20 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84249600"/>
+        <c:crossAx val="92465792"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2151,24 +2173,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="84786560"/>
-        <c:axId val="84800640"/>
+        <c:axId val="92568576"/>
+        <c:axId val="92574464"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84786560"/>
+        <c:axId val="92568576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84800640"/>
+        <c:crossAx val="92574464"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84800640"/>
+        <c:axId val="92574464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2176,7 +2198,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84786560"/>
+        <c:crossAx val="92568576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2189,7 +2211,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2460,24 +2482,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="86869504"/>
-        <c:axId val="86871040"/>
+        <c:axId val="92599040"/>
+        <c:axId val="92600576"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="86869504"/>
+        <c:axId val="92599040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86871040"/>
+        <c:crossAx val="92600576"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="86871040"/>
+        <c:axId val="92600576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2486,7 +2508,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="86869504"/>
+        <c:crossAx val="92599040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2498,7 +2520,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2897,24 +2919,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="74106752"/>
-        <c:axId val="75311360"/>
+        <c:axId val="94465408"/>
+        <c:axId val="94475392"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="74106752"/>
+        <c:axId val="94465408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75311360"/>
+        <c:crossAx val="94475392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="75311360"/>
+        <c:axId val="94475392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2924,13 +2946,253 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="74106752"/>
+        <c:crossAx val="94465408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="de-DE"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>vecVsKern0.07!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ambert_f1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>vecVsKern0.07!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>asthma</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>chf</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>depression</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gallstones</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gout</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>vecVsKern0.07!$C$2:$C$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.90967281672681599</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87827161195859704</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84899016721815701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.83763321005960301</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.61150439986707295</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>vecVsKern0.07!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bocuis_f1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>vecVsKern0.07!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>asthma</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>chf</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>depression</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gallstones</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gout</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>vecVsKern0.07!$D$2:$D$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.95038783436226604</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87335342783312997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93570261794715603</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89555306441556304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.63775621578207897</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>vecVsKern0.07!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>semkern_f1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>vecVsKern0.07!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>asthma</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>chf</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>depression</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>gallstones</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>gout</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>vecVsKern0.07!$F$2:$F$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.898146416678407</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58620854822053703</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93442211978499901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.89081987756710002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.62191950651099703</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="80114816"/>
+        <c:axId val="80121856"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="80114816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="80121856"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="80121856"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.4"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="80114816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
       <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3132,6 +3394,41 @@
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4455,6 +4752,145 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M25" sqref="M25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.90967281672681599</v>
+      </c>
+      <c r="D2">
+        <v>0.95038783436226604</v>
+      </c>
+      <c r="E2">
+        <v>0.91282450286654104</v>
+      </c>
+      <c r="F2">
+        <v>0.898146416678407</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>118</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>0.87827161195859704</v>
+      </c>
+      <c r="D3">
+        <v>0.87335342783312997</v>
+      </c>
+      <c r="E3">
+        <v>0.57850581360740705</v>
+      </c>
+      <c r="F3">
+        <v>0.58620854822053703</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>0.84899016721815701</v>
+      </c>
+      <c r="D4">
+        <v>0.93570261794715603</v>
+      </c>
+      <c r="E4">
+        <v>0.94082026541111996</v>
+      </c>
+      <c r="F4">
+        <v>0.93442211978499901</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>0.83763321005960301</v>
+      </c>
+      <c r="D5">
+        <v>0.89555306441556304</v>
+      </c>
+      <c r="E5">
+        <v>0.87215821351152101</v>
+      </c>
+      <c r="F5">
+        <v>0.89081987756710002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>121</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>0.61150439986707295</v>
+      </c>
+      <c r="D6">
+        <v>0.63775621578207897</v>
+      </c>
+      <c r="E6">
+        <v>0.62251063930252004</v>
+      </c>
+      <c r="F6">
+        <v>0.62191950651099703</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H18"/>
@@ -7044,7 +7480,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="B1:E17"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8353,8 +8789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" activeCellId="1" sqref="A1:A1048576 C1:E1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" activeCellId="2" sqref="A2:XFD2 A4:XFD4 A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/workspace/i2b2.2008/data/04-30-AmbertVsCui.xlsx
+++ b/workspace/i2b2.2008/data/04-30-AmbertVsCui.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="12435" windowHeight="6945" tabRatio="668" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="480" yWindow="135" windowWidth="12435" windowHeight="6945" tabRatio="921" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="05-09 cutoffVsF1" sheetId="9" r:id="rId1"/>
@@ -17,13 +17,14 @@
     <sheet name="Sheet2" sheetId="6" r:id="rId8"/>
     <sheet name="05-09 eval_test" sheetId="10" r:id="rId9"/>
     <sheet name="vecVsKern0.07" sheetId="12" r:id="rId10"/>
+    <sheet name="gallstones-features" sheetId="13" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="166">
   <si>
     <t>label</t>
   </si>
@@ -392,13 +393,142 @@
   </si>
   <si>
     <t>label_id</t>
+  </si>
+  <si>
+    <t>ontocuis</t>
+  </si>
+  <si>
+    <t>ontocuis-best</t>
+  </si>
+  <si>
+    <t>cui</t>
+  </si>
+  <si>
+    <t>ncuiword</t>
+  </si>
+  <si>
+    <t>cholecystectomy</t>
+  </si>
+  <si>
+    <t>axid</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>gallop</t>
+  </si>
+  <si>
+    <t>melena</t>
+  </si>
+  <si>
+    <t>afternoon</t>
+  </si>
+  <si>
+    <t>sensory</t>
+  </si>
+  <si>
+    <t>nystatin</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>deficit</t>
+  </si>
+  <si>
+    <t>neurologically</t>
+  </si>
+  <si>
+    <t>ah</t>
+  </si>
+  <si>
+    <t>adjust</t>
+  </si>
+  <si>
+    <t>anticoagulate</t>
+  </si>
+  <si>
+    <t>respiratory</t>
+  </si>
+  <si>
+    <t>staph</t>
+  </si>
+  <si>
+    <t>just</t>
+  </si>
+  <si>
+    <t>persist</t>
+  </si>
+  <si>
+    <t>determine</t>
+  </si>
+  <si>
+    <t>node</t>
+  </si>
+  <si>
+    <t>Cholecystectomies</t>
+  </si>
+  <si>
+    <t>Has urgency</t>
+  </si>
+  <si>
+    <t>Nasal oxygen cannula</t>
+  </si>
+  <si>
+    <t>Excision procedure on uterus</t>
+  </si>
+  <si>
+    <t>Paroxysmal</t>
+  </si>
+  <si>
+    <t>Deterioration of status</t>
+  </si>
+  <si>
+    <t>Biliary Calculi</t>
+  </si>
+  <si>
+    <t>Bladder</t>
+  </si>
+  <si>
+    <t>Entire spine</t>
+  </si>
+  <si>
+    <t>Biliary operations</t>
+  </si>
+  <si>
+    <t>Cholecystostomies</t>
+  </si>
+  <si>
+    <t>Celioscopic Cholecystectomies</t>
+  </si>
+  <si>
+    <t>Gallbladder operation</t>
+  </si>
+  <si>
+    <t>Repair of gallbladder</t>
+  </si>
+  <si>
+    <t>Percutaneous cholecystostomy</t>
+  </si>
+  <si>
+    <t>Biliary tract repair</t>
+  </si>
+  <si>
+    <t>Biliary tract excision</t>
+  </si>
+  <si>
+    <t>Biliary contrast radiog</t>
+  </si>
+  <si>
+    <t>ontocuis cutoff</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="19">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -884,10 +1014,21 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -935,17 +1076,34 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1202,33 +1360,47 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
-        <c:axId val="82107008"/>
-        <c:axId val="92344704"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="49470080"/>
+        <c:axId val="49475968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82107008"/>
+        <c:axId val="49470080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92344704"/>
+        <c:crossAx val="49475968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="92344704"/>
+        <c:axId val="49475968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
           <c:min val="0.4"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82107008"/>
+        <c:crossAx val="49470080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1236,8 +1408,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1249,13 +1424,25 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1270,6 +1457,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'05-09 bestByExp'!$A$2:$A$17</c:f>
@@ -1398,6 +1586,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'05-09 bestByExp'!$A$2:$A$17</c:f>
@@ -1526,6 +1715,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'05-09 bestByExp'!$A$2:$A$17</c:f>
@@ -1640,34 +1830,50 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="92399104"/>
-        <c:axId val="92400640"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="49661824"/>
+        <c:axId val="49663360"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92399104"/>
+        <c:axId val="49661824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92400640"/>
+        <c:crossAx val="49663360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92400640"/>
+        <c:axId val="49663360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
           <c:min val="0.4"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92399104"/>
+        <c:crossAx val="49661824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1675,8 +1881,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1688,15 +1897,28 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1830,34 +2052,49 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="92465792"/>
-        <c:axId val="92488064"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="49675648"/>
+        <c:axId val="51172480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="92465792"/>
+        <c:axId val="49675648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92488064"/>
+        <c:crossAx val="51172480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="92488064"/>
+        <c:axId val="51172480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
           <c:min val="0.5"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92465792"/>
+        <c:crossAx val="49675648"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1865,8 +2102,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -1878,13 +2118,25 @@
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -1899,6 +2151,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'05-02-VecVsKern'!$B$2:$B$17</c:f>
@@ -1971,6 +2224,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'05-02-VecVsKern'!$C$2:$C$17</c:f>
@@ -2043,6 +2297,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'05-02-VecVsKern'!$D$2:$D$17</c:f>
@@ -2115,6 +2370,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
               <c:f>'05-02-VecVsKern'!$E$2:$E$17</c:f>
@@ -2173,32 +2429,48 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="92568576"/>
-        <c:axId val="92574464"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="51326976"/>
+        <c:axId val="51328512"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92568576"/>
+        <c:axId val="51326976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92574464"/>
+        <c:crossAx val="51328512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92574464"/>
+        <c:axId val="51328512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92568576"/>
+        <c:crossAx val="51326976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2206,8 +2478,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2219,13 +2494,25 @@
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2240,6 +2527,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'04-30-AmbertVsCui'!$B$2:$B$17</c:f>
@@ -2368,6 +2656,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'04-30-AmbertVsCui'!$B$2:$B$17</c:f>
@@ -2482,41 +2771,61 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="92599040"/>
-        <c:axId val="92600576"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="51349376"/>
+        <c:axId val="51350912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="92599040"/>
+        <c:axId val="51349376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92600576"/>
+        <c:crossAx val="51350912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="92600576"/>
+        <c:axId val="51350912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92599040"/>
+        <c:crossAx val="51349376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2528,13 +2837,25 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2549,6 +2870,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'05-09 eval_test'!$A$2:$A$17</c:f>
@@ -2677,6 +2999,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'05-09 eval_test'!$A$2:$A$17</c:f>
@@ -2805,6 +3128,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>'05-09 eval_test'!$A$2:$A$17</c:f>
@@ -2919,34 +3243,50 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="94465408"/>
-        <c:axId val="94475392"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="52217344"/>
+        <c:axId val="52218880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="94465408"/>
+        <c:axId val="52217344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94475392"/>
+        <c:crossAx val="52218880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="94475392"/>
+        <c:axId val="52218880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
           <c:min val="0.4"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="94465408"/>
+        <c:crossAx val="52217344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2954,8 +3294,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -2967,13 +3310,25 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-DE"/>
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:barChart>
         <c:barDir val="col"/>
         <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -2988,6 +3343,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>vecVsKern0.07!$A$2:$A$6</c:f>
@@ -3050,6 +3406,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>vecVsKern0.07!$A$2:$A$6</c:f>
@@ -3112,6 +3469,7 @@
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
               <c:f>vecVsKern0.07!$A$2:$A$6</c:f>
@@ -3160,33 +3518,49 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="80114816"/>
-        <c:axId val="80121856"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="51266304"/>
+        <c:axId val="51267840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="80114816"/>
+        <c:axId val="51266304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80121856"/>
+        <c:crossAx val="51267840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="80121856"/>
+        <c:axId val="51267840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.4"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80114816"/>
+        <c:crossAx val="51266304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3194,8 +3568,11 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -3244,16 +3621,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3350,15 +3727,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3525,6 +3902,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -3559,6 +3937,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -3734,16 +4113,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I81"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I6" sqref="E1:I6"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -3765,8 +4144,11 @@
       <c r="I1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3796,8 +4178,12 @@
         <f>C17</f>
         <v>0.76062087991225702</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="J2">
+        <f>C57</f>
+        <v>0.467775681777721</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -3827,8 +4213,12 @@
         <f t="shared" ref="I3:I6" si="4">C18</f>
         <v>0.85694544996993605</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3">
+        <f t="shared" ref="J3:J6" si="5">C58</f>
+        <v>0.53025225839940604</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -3858,8 +4248,12 @@
         <f t="shared" si="4"/>
         <v>0.93570261794715603</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="J4">
+        <f t="shared" si="5"/>
+        <v>0.58731428257601104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3889,8 +4283,12 @@
         <f t="shared" si="4"/>
         <v>0.91023270240448495</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="J5">
+        <f t="shared" si="5"/>
+        <v>0.61316852053507198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -3920,8 +4318,12 @@
         <f t="shared" si="4"/>
         <v>0.91023270240448495</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6">
+        <f t="shared" si="5"/>
+        <v>0.60100173771466203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -3932,7 +4334,7 @@
         <v>0.59808003351412298</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -3943,7 +4345,7 @@
         <v>0.59731073184244299</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3954,7 +4356,7 @@
         <v>0.55624421446221595</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -3965,7 +4367,7 @@
         <v>0.47963231400766199</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -3976,7 +4378,7 @@
         <v>0.48109893478944199</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -3987,7 +4389,7 @@
         <v>0.87335342783312997</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -3998,7 +4400,7 @@
         <v>0.851196716267413</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -4009,7 +4411,7 @@
         <v>0.8905919498889</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -4020,7 +4422,7 @@
         <v>0.593478016952943</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>11</v>
       </c>
@@ -4031,7 +4433,7 @@
         <v>0.62412700265503895</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -4042,7 +4444,7 @@
         <v>0.76062087991225702</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -4053,7 +4455,7 @@
         <v>0.85694544996993605</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -4064,7 +4466,7 @@
         <v>0.93570261794715603</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -4075,7 +4477,7 @@
         <v>0.91023270240448495</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
@@ -4086,7 +4488,7 @@
         <v>0.91023270240448495</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -4097,7 +4499,7 @@
         <v>0.54704456936698997</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -4108,7 +4510,7 @@
         <v>0.571452077468104</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -4119,7 +4521,7 @@
         <v>0.51269312050452098</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -4130,7 +4532,7 @@
         <v>0.42417098975383999</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -4141,7 +4543,7 @@
         <v>0.423358969601485</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -4152,7 +4554,7 @@
         <v>0.61605015817308295</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -4163,7 +4565,7 @@
         <v>0.86102925336325498</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -4174,7 +4576,7 @@
         <v>0.89595436135713802</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -4185,7 +4587,7 @@
         <v>0.82842789361843905</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -4196,7 +4598,7 @@
         <v>0.82510317654575205</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>15</v>
       </c>
@@ -4207,7 +4609,7 @@
         <v>0.41181757418132903</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>15</v>
       </c>
@@ -4218,7 +4620,7 @@
         <v>0.464476411698238</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>15</v>
       </c>
@@ -4229,7 +4631,7 @@
         <v>0.60016229474434402</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -4240,7 +4642,7 @@
         <v>0.86370646635315595</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -4251,7 +4653,7 @@
         <v>0.85037831753826298</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>16</v>
       </c>
@@ -4262,7 +4664,7 @@
         <v>0.53025809795710999</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>16</v>
       </c>
@@ -4273,7 +4675,7 @@
         <v>0.60039361249169099</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>16</v>
       </c>
@@ -4284,7 +4686,7 @@
         <v>0.63775621578207897</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>16</v>
       </c>
@@ -4295,7 +4697,7 @@
         <v>0.60004668335712097</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>16</v>
       </c>
@@ -4306,7 +4708,7 @@
         <v>0.59957752234344797</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>17</v>
       </c>
@@ -4317,7 +4719,7 @@
         <v>0.54921738607890502</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>17</v>
       </c>
@@ -4328,7 +4730,7 @@
         <v>0.51554635341252797</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>17</v>
       </c>
@@ -4339,7 +4741,7 @@
         <v>0.49083468377601802</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>17</v>
       </c>
@@ -4350,7 +4752,7 @@
         <v>0.28824749420073398</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>17</v>
       </c>
@@ -4361,7 +4763,7 @@
         <v>0.28643837565701702</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>3</v>
       </c>
@@ -4372,7 +4774,7 @@
         <v>0.68144683067357203</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>3</v>
       </c>
@@ -4383,7 +4785,7 @@
         <v>0.78542502001772696</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>3</v>
       </c>
@@ -4394,7 +4796,7 @@
         <v>0.61934468782709995</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>3</v>
       </c>
@@ -4405,7 +4807,7 @@
         <v>0.46554731170608799</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>3</v>
       </c>
@@ -4416,7 +4818,7 @@
         <v>0.46505011626519699</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>4</v>
       </c>
@@ -4427,7 +4829,7 @@
         <v>0.49107479946410199</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>4</v>
       </c>
@@ -4438,7 +4840,7 @@
         <v>0.58605766418947003</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -4449,7 +4851,7 @@
         <v>0.80807796131696796</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>4</v>
       </c>
@@ -4460,7 +4862,7 @@
         <v>0.88418333952228301</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -4471,7 +4873,7 @@
         <v>0.69793977855130895</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>5</v>
       </c>
@@ -4482,7 +4884,7 @@
         <v>0.467775681777721</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>5</v>
       </c>
@@ -4493,7 +4895,7 @@
         <v>0.53025225839940604</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>5</v>
       </c>
@@ -4504,7 +4906,7 @@
         <v>0.58731428257601104</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>5</v>
       </c>
@@ -4515,7 +4917,7 @@
         <v>0.61316852053507198</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>5</v>
       </c>
@@ -4526,7 +4928,7 @@
         <v>0.60100173771466203</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>6</v>
       </c>
@@ -4537,7 +4939,7 @@
         <v>0.921395284453009</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>6</v>
       </c>
@@ -4548,7 +4950,7 @@
         <v>0.96917110078011603</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>6</v>
       </c>
@@ -4559,7 +4961,7 @@
         <v>0.64384345757303796</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>6</v>
       </c>
@@ -4570,7 +4972,7 @@
         <v>0.96917174457699695</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>6</v>
       </c>
@@ -4581,7 +4983,7 @@
         <v>0.96895510713425004</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -4592,7 +4994,7 @@
         <v>0.57771428047679696</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -4603,7 +5005,7 @@
         <v>0.63021781295127199</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -4614,7 +5016,7 @@
         <v>0.64184793215746205</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -4625,7 +5027,7 @@
         <v>0.64291386894301095</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -4636,7 +5038,7 @@
         <v>0.64291386894301095</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>8</v>
       </c>
@@ -4647,7 +5049,7 @@
         <v>0.57365732839269501</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>8</v>
       </c>
@@ -4658,7 +5060,7 @@
         <v>0.59884335920036302</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>8</v>
       </c>
@@ -4669,7 +5071,7 @@
         <v>0.65177646691584101</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>8</v>
       </c>
@@ -4680,7 +5082,7 @@
         <v>0.92299437668031703</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>8</v>
       </c>
@@ -4691,7 +5093,7 @@
         <v>0.90105444825515402</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>9</v>
       </c>
@@ -4702,7 +5104,7 @@
         <v>0.58823649601910299</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>9</v>
       </c>
@@ -4713,7 +5115,7 @@
         <v>0.62809912183406802</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>9</v>
       </c>
@@ -4724,7 +5126,7 @@
         <v>0.61748282962183598</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>9</v>
       </c>
@@ -4735,7 +5137,7 @@
         <v>0.72482997008859396</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>9</v>
       </c>
@@ -4753,19 +5155,19 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M25" sqref="M25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4785,7 +5187,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -4805,7 +5207,7 @@
         <v>0.898146416678407</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -4825,7 +5227,7 @@
         <v>0.58620854822053703</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>119</v>
       </c>
@@ -4845,7 +5247,7 @@
         <v>0.93442211978499901</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>120</v>
       </c>
@@ -4865,7 +5267,7 @@
         <v>0.89081987756710002</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>121</v>
       </c>
@@ -4891,17 +5293,391 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H18"/>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:I27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="8" style="5" customWidth="1"/>
+    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="5"/>
+    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B3" s="6">
+        <v>0.39453601167156999</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.39407756052084802</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="6">
+        <v>7.3767176416964106E-2</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0.35039752639032801</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B4" s="6">
+        <v>0.13494917236031501</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D4" s="3">
+        <v>7.7153438617393294E-2</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="6">
+        <v>6.6736614121460799E-2</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0.35039752639032801</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B5" s="6">
+        <v>0.14142148770358001</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="3">
+        <v>7.5074457911798995E-2</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F5" s="6">
+        <v>6.5374722676645902E-2</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0.35039752639032801</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+      <c r="B6" s="6">
+        <v>0.156904028159988</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="3">
+        <v>7.4768089625143905E-2</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="6">
+        <v>6.41475448086887E-2</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.35039752639032801</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B7" s="6">
+        <v>0.15445509019717901</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" s="3">
+        <v>7.2146220589035095E-2</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F7" s="6">
+        <v>6.3528491997369999E-2</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.35039752639032801</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B8" s="6">
+        <v>0.13036047208096499</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D8" s="3">
+        <v>6.9498134354751606E-2</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F8" s="6">
+        <v>6.2711046077359195E-2</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.35039752639032801</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B9" s="6">
+        <v>0.1401792703585</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D9" s="3">
+        <v>6.9252308706953106E-2</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F9" s="6">
+        <v>6.04042778178547E-2</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0.35039752639032801</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B10" s="6">
+        <v>0.14078543467052201</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D10" s="3">
+        <v>6.8956784423806206E-2</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" s="6">
+        <v>5.99708204939884E-2</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0.35039752639032801</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B11" s="6">
+        <v>0.134141625163058</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" s="3">
+        <v>6.8956784423806206E-2</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="F11" s="6">
+        <v>5.8264395434375803E-2</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="H11" s="3">
+        <v>0.35039752639032801</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+      <c r="B12" s="6">
+        <v>0.138110423087903</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="D12" s="3">
+        <v>6.8238246776135894E-2</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="F12" s="6">
+        <v>5.82003855312518E-2</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="H12" s="3">
+        <v>0.34448010441904497</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="6"/>
+      <c r="C13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="6"/>
+      <c r="C14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="6"/>
+      <c r="C15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="6"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+    </row>
+    <row r="17" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+    </row>
+    <row r="18" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+    </row>
+    <row r="19" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+    </row>
+    <row r="20" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+    </row>
+    <row r="21" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+    </row>
+    <row r="22" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+    </row>
+    <row r="23" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+    </row>
+    <row r="24" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+    </row>
+    <row r="25" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+    </row>
+    <row r="26" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+    </row>
+    <row r="27" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.85546875" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -4926,8 +5702,17 @@
       <c r="H1" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" t="s">
+        <v>124</v>
+      </c>
+      <c r="M1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -4953,8 +5738,24 @@
         <f>D2-C2</f>
         <v>4.2129277764700879E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" s="3">
+        <v>0.96356802957863197</v>
+      </c>
+      <c r="J2" s="1">
+        <f>I2-MAX(D2,C2)</f>
+        <v>1.3180195216365931E-2</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0.96356802957863197</v>
+      </c>
+      <c r="M2" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -4980,8 +5781,24 @@
         <f t="shared" ref="H3:H17" si="0">D3-C3</f>
         <v>1.3795763749087975E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="I3" s="3">
+        <v>0.59325744725960805</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:K17" si="1">I3-MAX(D3,C3)</f>
+        <v>-4.8225862545149267E-3</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0.59325744725960805</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -5007,8 +5824,24 @@
         <f t="shared" si="0"/>
         <v>-1.6737622092299009E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4" s="3">
+        <v>0.91739512981606197</v>
+      </c>
+      <c r="J4" s="7">
+        <f t="shared" si="1"/>
+        <v>1.0065557834862959E-2</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.91739512981606197</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -5034,8 +5867,24 @@
         <f t="shared" si="0"/>
         <v>-5.557100721547914E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5" s="3">
+        <v>0.91524203687775096</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="1"/>
+        <v>-2.6017681790952984E-2</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.91524203687775096</v>
+      </c>
+      <c r="M5" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -5061,8 +5910,24 @@
         <f t="shared" si="0"/>
         <v>-3.0686294498022959E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6" s="3">
+        <v>0.59426119023281399</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="1"/>
+        <v>-7.8771817333129768E-3</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.59426119023281399</v>
+      </c>
+      <c r="M6" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -5088,8 +5953,24 @@
         <f t="shared" si="0"/>
         <v>5.156820942197049E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7" s="3">
+        <v>0.93796706381106099</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="1"/>
+        <v>4.2012702453922968E-2</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.93796706381106099</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -5115,8 +5996,24 @@
         <f t="shared" si="0"/>
         <v>-2.0107154849847042E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8" s="3">
+        <v>0.88757772237187305</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="1"/>
+        <v>3.7641011688700488E-3</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0.88757772237187305</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -5142,8 +6039,24 @@
         <f t="shared" si="0"/>
         <v>-1.5063435611793019E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9" s="3">
+        <v>0.63814624672216802</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="1"/>
+        <v>-1.4673404671703971E-2</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0.63814624672216802</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="N9" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -5169,8 +6082,24 @@
         <f t="shared" si="0"/>
         <v>3.0801787361119048E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10" s="3">
+        <v>0.56329562518866705</v>
+      </c>
+      <c r="J10" s="1">
+        <f t="shared" si="1"/>
+        <v>1.4078239109762025E-2</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0.56329562518866705</v>
+      </c>
+      <c r="M10" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="N10" s="3">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -5196,8 +6125,24 @@
         <f t="shared" si="0"/>
         <v>1.9270994162145949E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11" s="3">
+        <v>0.78618027427974302</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>7.552542620160585E-4</v>
+      </c>
+      <c r="L11" s="3">
+        <v>0.78618027427974302</v>
+      </c>
+      <c r="M11" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -5223,8 +6168,24 @@
         <f t="shared" si="0"/>
         <v>1.094302926042201E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12" s="3">
+        <v>0.87901522279491495</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="1"/>
+        <v>-5.1681167273680551E-3</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0.87901522279491495</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="N12" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -5250,8 +6211,24 @@
         <f t="shared" si="0"/>
         <v>1.0766015159050957E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13" s="3">
+        <v>0.85188798503800101</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="1"/>
+        <v>0.23871946450292902</v>
+      </c>
+      <c r="L13" s="3">
+        <v>0.85188798503800001</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -5277,8 +6254,24 @@
         <f t="shared" si="0"/>
         <v>-1.2520946669900557E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="I14" s="3">
+        <v>0.96791061413608104</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="1"/>
+        <v>-2.5132251079059698E-3</v>
+      </c>
+      <c r="L14" s="3">
+        <v>0.96791061413608104</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0.03</v>
+      </c>
+      <c r="N14" s="4">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -5304,8 +6297,24 @@
         <f t="shared" si="0"/>
         <v>-1.5691680228450133E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="I15" s="3">
+        <v>0.64085157850621499</v>
+      </c>
+      <c r="J15">
+        <f t="shared" si="1"/>
+        <v>-3.6314584596409683E-3</v>
+      </c>
+      <c r="L15" s="3">
+        <v>0.64085157850621499</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0.35</v>
+      </c>
+      <c r="N15" s="4">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -5331,8 +6340,24 @@
         <f t="shared" si="0"/>
         <v>3.3884436094339998E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="I16" s="3">
+        <v>0.89838728303433202</v>
+      </c>
+      <c r="J16" s="1">
+        <f t="shared" si="1"/>
+        <v>-2.4607093645985012E-2</v>
+      </c>
+      <c r="L16" s="3">
+        <v>0.89838728303433302</v>
+      </c>
+      <c r="M16" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="N16" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -5358,8 +6383,24 @@
         <f t="shared" si="0"/>
         <v>-1.7250995112275014E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="I17" s="3">
+        <v>0.73954636128220597</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="1"/>
+        <v>-2.5346039186630032E-3</v>
+      </c>
+      <c r="L17" s="3">
+        <v>0.73954636128220597</v>
+      </c>
+      <c r="M17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="N17" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C18">
         <f>AVERAGE(C2:C17)</f>
         <v>0.77593299213666334</v>
@@ -5371,6 +6412,10 @@
       <c r="H18">
         <f>SUM(H2:H17)</f>
         <v>2.0607908929213048E-2</v>
+      </c>
+      <c r="J18">
+        <f>SUM(J2:J17)-J13</f>
+        <v>-7.9893022642478773E-3</v>
       </c>
     </row>
   </sheetData>
@@ -5380,16 +6425,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C148"/>
   <sheetViews>
     <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -5400,7 +6445,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5411,7 +6456,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -5422,7 +6467,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
@@ -5433,7 +6478,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
@@ -5444,7 +6489,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1</v>
       </c>
@@ -5455,7 +6500,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -5466,7 +6511,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1</v>
       </c>
@@ -5477,7 +6522,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1</v>
       </c>
@@ -5488,7 +6533,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1</v>
       </c>
@@ -5499,7 +6544,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5510,7 +6555,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5521,7 +6566,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
@@ -5532,7 +6577,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>10</v>
       </c>
@@ -5543,7 +6588,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>10</v>
       </c>
@@ -5554,7 +6599,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
@@ -5565,7 +6610,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>10</v>
       </c>
@@ -5576,7 +6621,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>10</v>
       </c>
@@ -5587,7 +6632,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>10</v>
       </c>
@@ -5598,7 +6643,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>11</v>
       </c>
@@ -5609,7 +6654,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>11</v>
       </c>
@@ -5620,7 +6665,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>11</v>
       </c>
@@ -5631,7 +6676,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>11</v>
       </c>
@@ -5642,7 +6687,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>11</v>
       </c>
@@ -5653,7 +6698,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>11</v>
       </c>
@@ -5664,7 +6709,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>11</v>
       </c>
@@ -5675,7 +6720,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>11</v>
       </c>
@@ -5686,7 +6731,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>11</v>
       </c>
@@ -5697,7 +6742,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>12</v>
       </c>
@@ -5708,7 +6753,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>12</v>
       </c>
@@ -5719,7 +6764,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>12</v>
       </c>
@@ -5730,7 +6775,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>12</v>
       </c>
@@ -5741,7 +6786,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>12</v>
       </c>
@@ -5752,7 +6797,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>12</v>
       </c>
@@ -5763,7 +6808,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>12</v>
       </c>
@@ -5774,7 +6819,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>12</v>
       </c>
@@ -5785,7 +6830,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>12</v>
       </c>
@@ -5796,7 +6841,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>13</v>
       </c>
@@ -5807,7 +6852,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>13</v>
       </c>
@@ -5818,7 +6863,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>13</v>
       </c>
@@ -5829,7 +6874,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>13</v>
       </c>
@@ -5840,7 +6885,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>13</v>
       </c>
@@ -5851,7 +6896,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>13</v>
       </c>
@@ -5862,7 +6907,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>13</v>
       </c>
@@ -5873,7 +6918,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>13</v>
       </c>
@@ -5884,7 +6929,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>13</v>
       </c>
@@ -5895,7 +6940,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>14</v>
       </c>
@@ -5906,7 +6951,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>14</v>
       </c>
@@ -5917,7 +6962,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>14</v>
       </c>
@@ -5928,7 +6973,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>14</v>
       </c>
@@ -5939,7 +6984,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>14</v>
       </c>
@@ -5950,7 +6995,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>14</v>
       </c>
@@ -5961,7 +7006,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>14</v>
       </c>
@@ -5972,7 +7017,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>14</v>
       </c>
@@ -5983,7 +7028,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>14</v>
       </c>
@@ -5994,7 +7039,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>15</v>
       </c>
@@ -6005,7 +7050,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>15</v>
       </c>
@@ -6016,7 +7061,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>15</v>
       </c>
@@ -6027,7 +7072,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>15</v>
       </c>
@@ -6038,7 +7083,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>15</v>
       </c>
@@ -6049,7 +7094,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>15</v>
       </c>
@@ -6060,7 +7105,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>15</v>
       </c>
@@ -6071,7 +7116,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>15</v>
       </c>
@@ -6082,7 +7127,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>15</v>
       </c>
@@ -6093,7 +7138,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>16</v>
       </c>
@@ -6104,7 +7149,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>16</v>
       </c>
@@ -6115,7 +7160,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>16</v>
       </c>
@@ -6126,7 +7171,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>16</v>
       </c>
@@ -6137,7 +7182,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>16</v>
       </c>
@@ -6148,7 +7193,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>16</v>
       </c>
@@ -6159,7 +7204,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>16</v>
       </c>
@@ -6170,7 +7215,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>16</v>
       </c>
@@ -6181,7 +7226,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>16</v>
       </c>
@@ -6192,7 +7237,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2</v>
       </c>
@@ -6203,7 +7248,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2</v>
       </c>
@@ -6214,7 +7259,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2</v>
       </c>
@@ -6225,7 +7270,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2</v>
       </c>
@@ -6236,7 +7281,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2</v>
       </c>
@@ -6247,7 +7292,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2</v>
       </c>
@@ -6258,7 +7303,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2</v>
       </c>
@@ -6269,7 +7314,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2</v>
       </c>
@@ -6280,7 +7325,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2</v>
       </c>
@@ -6291,7 +7336,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>3</v>
       </c>
@@ -6302,7 +7347,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>3</v>
       </c>
@@ -6313,7 +7358,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>3</v>
       </c>
@@ -6324,7 +7369,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>3</v>
       </c>
@@ -6335,7 +7380,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>3</v>
       </c>
@@ -6346,7 +7391,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>3</v>
       </c>
@@ -6357,7 +7402,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>3</v>
       </c>
@@ -6368,7 +7413,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>3</v>
       </c>
@@ -6379,7 +7424,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>3</v>
       </c>
@@ -6390,7 +7435,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>4</v>
       </c>
@@ -6401,7 +7446,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>4</v>
       </c>
@@ -6412,7 +7457,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>4</v>
       </c>
@@ -6423,7 +7468,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>4</v>
       </c>
@@ -6434,7 +7479,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>4</v>
       </c>
@@ -6445,7 +7490,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>4</v>
       </c>
@@ -6456,7 +7501,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>4</v>
       </c>
@@ -6467,7 +7512,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>4</v>
       </c>
@@ -6478,7 +7523,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>4</v>
       </c>
@@ -6489,7 +7534,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>5</v>
       </c>
@@ -6500,7 +7545,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>5</v>
       </c>
@@ -6511,7 +7556,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>5</v>
       </c>
@@ -6522,7 +7567,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>5</v>
       </c>
@@ -6533,7 +7578,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>5</v>
       </c>
@@ -6544,7 +7589,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>5</v>
       </c>
@@ -6555,7 +7600,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>5</v>
       </c>
@@ -6566,7 +7611,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>5</v>
       </c>
@@ -6577,7 +7622,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>5</v>
       </c>
@@ -6588,7 +7633,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>6</v>
       </c>
@@ -6599,7 +7644,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>6</v>
       </c>
@@ -6610,7 +7655,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>6</v>
       </c>
@@ -6621,7 +7666,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>6</v>
       </c>
@@ -6632,7 +7677,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>6</v>
       </c>
@@ -6643,7 +7688,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>6</v>
       </c>
@@ -6654,7 +7699,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>6</v>
       </c>
@@ -6665,7 +7710,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>6</v>
       </c>
@@ -6676,7 +7721,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>6</v>
       </c>
@@ -6687,7 +7732,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>7</v>
       </c>
@@ -6698,7 +7743,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>7</v>
       </c>
@@ -6709,7 +7754,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>7</v>
       </c>
@@ -6720,7 +7765,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>7</v>
       </c>
@@ -6731,7 +7776,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>7</v>
       </c>
@@ -6742,7 +7787,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>7</v>
       </c>
@@ -6753,7 +7798,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>7</v>
       </c>
@@ -6764,7 +7809,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>7</v>
       </c>
@@ -6775,7 +7820,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>7</v>
       </c>
@@ -6786,7 +7831,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>8</v>
       </c>
@@ -6797,7 +7842,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>8</v>
       </c>
@@ -6808,7 +7853,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>8</v>
       </c>
@@ -6819,7 +7864,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>8</v>
       </c>
@@ -6830,7 +7875,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>8</v>
       </c>
@@ -6841,7 +7886,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>8</v>
       </c>
@@ -6852,7 +7897,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>8</v>
       </c>
@@ -6863,7 +7908,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>8</v>
       </c>
@@ -6874,7 +7919,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>8</v>
       </c>
@@ -6885,7 +7930,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>9</v>
       </c>
@@ -6896,7 +7941,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>9</v>
       </c>
@@ -6907,7 +7952,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>9</v>
       </c>
@@ -6918,7 +7963,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>9</v>
       </c>
@@ -6929,7 +7974,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>9</v>
       </c>
@@ -6940,7 +7985,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>9</v>
       </c>
@@ -6951,7 +7996,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>9</v>
       </c>
@@ -6962,7 +8007,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>9</v>
       </c>
@@ -6973,7 +8018,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>9</v>
       </c>
@@ -6984,7 +8029,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>9</v>
       </c>
@@ -6995,7 +8040,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>9</v>
       </c>
@@ -7006,7 +8051,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>9</v>
       </c>
@@ -7023,19 +8068,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="26.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -7055,7 +8100,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>9</v>
       </c>
@@ -7075,7 +8120,7 @@
         <v>0.54921738607890502</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -7095,7 +8140,7 @@
         <v>0.59808003351412298</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>5</v>
       </c>
@@ -7115,7 +8160,7 @@
         <v>0.60672108537561498</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>12</v>
       </c>
@@ -7135,7 +8180,7 @@
         <v>0.61571193603009</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>8</v>
       </c>
@@ -7155,7 +8200,7 @@
         <v>0.63775621578207897</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>14</v>
       </c>
@@ -7175,7 +8220,7 @@
         <v>0.64291386894301095</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>16</v>
       </c>
@@ -7195,7 +8240,7 @@
         <v>0.72367121695177705</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>10</v>
       </c>
@@ -7215,7 +8260,7 @@
         <v>0.78542502001772696</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
@@ -7235,7 +8280,7 @@
         <v>0.86370646635315595</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -7255,7 +8300,7 @@
         <v>0.87827161195859704</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -7275,7 +8320,7 @@
         <v>0.88454013348201499</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>6</v>
       </c>
@@ -7295,7 +8340,7 @@
         <v>0.89555306441556304</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>15</v>
       </c>
@@ -7315,7 +8360,7 @@
         <v>0.92299437668031703</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>4</v>
       </c>
@@ -7335,7 +8380,7 @@
         <v>0.94082026541111996</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1</v>
       </c>
@@ -7355,7 +8400,7 @@
         <v>0.95038783436226604</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>13</v>
       </c>
@@ -7375,22 +8420,22 @@
         <v>0.97020653956053204</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23">
         <f>A3</f>
         <v>2</v>
@@ -7400,7 +8445,7 @@
         <v>CAD</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24">
         <f>A4</f>
         <v>5</v>
@@ -7410,7 +8455,7 @@
         <v>Diabetes</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25">
         <f>A7</f>
         <v>14</v>
@@ -7420,12 +8465,12 @@
         <v>OSA</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28">
         <f>A8</f>
         <v>16</v>
@@ -7435,7 +8480,7 @@
         <v>Venous Insufficiency</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29">
         <f>A9</f>
         <v>10</v>
@@ -7445,7 +8490,7 @@
         <v>Hypertension</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <f>A12</f>
         <v>11</v>
@@ -7455,7 +8500,7 @@
         <v>Hypertriglyceridemia</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <f>A13</f>
         <v>6</v>
@@ -7476,16 +8521,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7502,7 +8547,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7519,7 +8564,7 @@
         <v>0.898146416678407</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -7536,7 +8581,7 @@
         <v>0.57202108548168895</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>11</v>
       </c>
@@ -7553,7 +8598,7 @@
         <v>0.78332222519350903</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>12</v>
       </c>
@@ -7570,7 +8615,7 @@
         <v>0.55160570709517698</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>13</v>
       </c>
@@ -7587,7 +8632,7 @@
         <v>0.63501177050791902</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>14</v>
       </c>
@@ -7604,7 +8649,7 @@
         <v>0.62422954842253597</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>15</v>
       </c>
@@ -7621,7 +8666,7 @@
         <v>0.59681340123896098</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>16</v>
       </c>
@@ -7638,7 +8683,7 @@
         <v>0.50644876434107</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -7655,7 +8700,7 @@
         <v>0.53911745715053405</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -7672,7 +8717,7 @@
         <v>0.58620854822053703</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -7689,7 +8734,7 @@
         <v>0.93442211978499901</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
@@ -7706,7 +8751,7 @@
         <v>0.51533857207082401</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6</v>
       </c>
@@ -7723,7 +8768,7 @@
         <v>0.89081987756710002</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7</v>
       </c>
@@ -7740,7 +8785,7 @@
         <v>0.49699948202414601</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8</v>
       </c>
@@ -7757,7 +8802,7 @@
         <v>0.62191950651099703</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>9</v>
       </c>
@@ -7781,19 +8826,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:D17"/>
+      <selection activeCell="F1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7807,7 +8853,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7820,8 +8866,9 @@
       <c r="D2">
         <v>0.95038783436226604</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>10</v>
       </c>
@@ -7834,8 +8881,9 @@
       <c r="D3">
         <v>0.78542502001772696</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>11</v>
       </c>
@@ -7848,8 +8896,9 @@
       <c r="D4">
         <v>0.88454013348201499</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>12</v>
       </c>
@@ -7862,8 +8911,9 @@
       <c r="D5">
         <v>0.61571193603009</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>13</v>
       </c>
@@ -7876,8 +8926,9 @@
       <c r="D6">
         <v>0.97020653956053204</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>14</v>
       </c>
@@ -7890,8 +8941,9 @@
       <c r="D7">
         <v>0.64291386894301095</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>15</v>
       </c>
@@ -7904,8 +8956,9 @@
       <c r="D8">
         <v>0.92299437668031703</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>16</v>
       </c>
@@ -7918,8 +8971,9 @@
       <c r="D9">
         <v>0.72367121695177705</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2</v>
       </c>
@@ -7932,8 +8986,9 @@
       <c r="D10">
         <v>0.59808003351412298</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>3</v>
       </c>
@@ -7946,8 +9001,9 @@
       <c r="D11">
         <v>0.87335342783312997</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -7960,8 +9016,9 @@
       <c r="D12">
         <v>0.93570261794715603</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" s="3"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
@@ -7974,8 +9031,9 @@
       <c r="D13">
         <v>0.571452077468104</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>6</v>
       </c>
@@ -7988,8 +9046,9 @@
       <c r="D14">
         <v>0.89555306441556304</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>7</v>
       </c>
@@ -8002,8 +9061,9 @@
       <c r="D15">
         <v>0.86370646635315595</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>8</v>
       </c>
@@ -8016,8 +9076,9 @@
       <c r="D16">
         <v>0.63775621578207897</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>9</v>
       </c>
@@ -8030,22 +9091,24 @@
       <c r="D17">
         <v>0.54921738607890502</v>
       </c>
+      <c r="E17" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="18" customWidth="1"/>
     <col min="4" max="4" width="23.5703125" customWidth="1"/>
@@ -8053,7 +9116,7 @@
     <col min="10" max="10" width="19.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
         <v>70</v>
       </c>
@@ -8070,7 +9133,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -8093,7 +9156,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -8125,7 +9188,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -8154,7 +9217,7 @@
         <v>0.77012264063659097</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -8183,7 +9246,7 @@
         <v>0.70992706861037302</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -8212,7 +9275,7 @@
         <v>0.62508617494177698</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -8241,7 +9304,7 @@
         <v>0.66323575552004599</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -8273,7 +9336,7 @@
         <v>2.8332000000000002</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>67</v>
       </c>
@@ -8302,12 +9365,12 @@
         <v>0.77012264063659097</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>46</v>
       </c>
@@ -8327,7 +9390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -8347,7 +9410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -8367,7 +9430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>53</v>
       </c>
@@ -8387,7 +9450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>58</v>
       </c>
@@ -8413,7 +9476,7 @@
         <v>0.34517737821913702</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>58</v>
       </c>
@@ -8439,7 +9502,7 @@
         <v>0.54042012241720705</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>58</v>
       </c>
@@ -8465,7 +9528,7 @@
         <v>0.61988723932980305</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -8507,21 +9570,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
     <col min="5" max="5" width="22.7109375" customWidth="1"/>
     <col min="6" max="6" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D1" t="s">
         <v>95</v>
       </c>
@@ -8547,7 +9610,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -8579,7 +9642,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>50</v>
       </c>
@@ -8611,7 +9674,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>53</v>
       </c>
@@ -8643,7 +9706,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>53</v>
       </c>
@@ -8675,7 +9738,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>58</v>
       </c>
@@ -8710,7 +9773,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>58</v>
       </c>
@@ -8745,7 +9808,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>58</v>
       </c>
@@ -8786,19 +9849,19 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" activeCellId="2" sqref="A2:XFD2 A4:XFD4 A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -8815,7 +9878,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -8832,7 +9895,7 @@
         <v>0.97</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -8849,7 +9912,7 @@
         <v>0.63</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -8866,7 +9929,7 @@
         <v>0.61199999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -8883,7 +9946,7 @@
         <v>0.93500000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -8900,7 +9963,7 @@
         <v>0.91500000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -8917,7 +9980,7 @@
         <v>0.96099999999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -8934,7 +9997,7 @@
         <v>0.57899999999999996</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -8951,7 +10014,7 @@
         <v>0.98099999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -8968,7 +10031,7 @@
         <v>0.91200000000000003</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -8985,7 +10048,7 @@
         <v>0.89900000000000002</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -9002,7 +10065,7 @@
         <v>0.876</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -9019,7 +10082,7 @@
         <v>0.63100000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -9036,7 +10099,7 @@
         <v>0.97299999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -9053,7 +10116,7 @@
         <v>0.65300000000000002</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -9070,7 +10133,7 @@
         <v>0.623</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>

--- a/workspace/i2b2.2008/data/04-30-AmbertVsCui.xlsx
+++ b/workspace/i2b2.2008/data/04-30-AmbertVsCui.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="135" windowWidth="12435" windowHeight="6945" tabRatio="921" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="195" windowWidth="12435" windowHeight="6885" tabRatio="921" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="05-09 cutoffVsF1" sheetId="9" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="05-09 eval_test" sheetId="10" r:id="rId9"/>
     <sheet name="vecVsKern0.07" sheetId="12" r:id="rId10"/>
     <sheet name="gallstones-features" sheetId="13" r:id="rId11"/>
+    <sheet name="Sheet3" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="199">
   <si>
     <t>label</t>
   </si>
@@ -398,9 +399,6 @@
     <t>ontocuis</t>
   </si>
   <si>
-    <t>ontocuis-best</t>
-  </si>
-  <si>
     <t>cui</t>
   </si>
   <si>
@@ -521,13 +519,118 @@
     <t>Biliary contrast radiog</t>
   </si>
   <si>
-    <t>ontocuis cutoff</t>
+    <t>bag-cui</t>
+  </si>
+  <si>
+    <t>bag-cuiword</t>
+  </si>
+  <si>
+    <t>kern-cuiword-dot</t>
+  </si>
+  <si>
+    <t>kern-cuiword-lin</t>
+  </si>
+  <si>
+    <t>1, 0.964, 0.35, 0.35</t>
+  </si>
+  <si>
+    <t>2, 0.528, 0.03, 0.03</t>
+  </si>
+  <si>
+    <t>3, 0.663, 0.05, 0.05</t>
+  </si>
+  <si>
+    <t>4, 0.853, 0.2, 0.2</t>
+  </si>
+  <si>
+    <t>5, 0.509, 0.03, 0.03</t>
+  </si>
+  <si>
+    <t>6, 0.469, 0.09, 0.09</t>
+  </si>
+  <si>
+    <t>7, 0.888, 0.15, 0.15</t>
+  </si>
+  <si>
+    <t>8, 0.589, 0.3, 0.3</t>
+  </si>
+  <si>
+    <t>9, 0.489, 0.05, 0.05</t>
+  </si>
+  <si>
+    <t>10, 0.596, 0.05, 0.05</t>
+  </si>
+  <si>
+    <t>11, 0.832, 0.1, 0.1</t>
+  </si>
+  <si>
+    <t>12, 0.833, 0.25, 0.25</t>
+  </si>
+  <si>
+    <t>13, 0.772, 0.05, 0.05</t>
+  </si>
+  <si>
+    <t>14, 0.639, 0.15, 0.15</t>
+  </si>
+  <si>
+    <t>15, 0.844, 0.25, 0.25</t>
+  </si>
+  <si>
+    <t>16, 0.717, 0.09, 0.09</t>
+  </si>
+  <si>
+    <t>[C0198500]</t>
+  </si>
+  <si>
+    <t>C0003611</t>
+  </si>
+  <si>
+    <t>Appendectomy</t>
+  </si>
+  <si>
+    <t>[C0191952, C0198500]</t>
+  </si>
+  <si>
+    <t>C0162575</t>
+  </si>
+  <si>
+    <t>Embolectomy</t>
+  </si>
+  <si>
+    <t>[C0728940]</t>
+  </si>
+  <si>
+    <t>C0027695</t>
+  </si>
+  <si>
+    <t>Nephrectomy</t>
+  </si>
+  <si>
+    <t>[C0360714]</t>
+  </si>
+  <si>
+    <t>[C1320237]</t>
+  </si>
+  <si>
+    <t>[C0003367, C1320237]</t>
+  </si>
+  <si>
+    <t>[C0358700]</t>
+  </si>
+  <si>
+    <t>[C2720507]</t>
+  </si>
+  <si>
+    <t>docId</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1014,7 +1117,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1028,7 +1131,11 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1368,11 +1475,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="49470080"/>
-        <c:axId val="49475968"/>
+        <c:axId val="75766784"/>
+        <c:axId val="75776768"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="49470080"/>
+        <c:axId val="75766784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1382,12 +1489,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49475968"/>
+        <c:crossAx val="75776768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="49475968"/>
+        <c:axId val="75776768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1400,14 +1507,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49470080"/>
+        <c:crossAx val="75766784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1436,399 +1542,149 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'05-09 bestByExp'!$C$1</c:f>
+              <c:f>'05-03 bestByClassDist'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Words</c:v>
+                  <c:v>f1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'05-09 bestByExp'!$A$2:$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>Asthma</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>CAD</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>CHF</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Depression</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Diabetes</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Gallstones</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>GERD</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Gout</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Hypercholesterolemia</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Hypertension</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Hypertriglyceridemia</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>OA</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Obesity</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>OSA</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>PVD</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Venous Insufficiency</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
+          <c:spPr>
+            <a:ln w="28575">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:xVal>
             <c:numRef>
-              <c:f>'05-09 bestByExp'!$C$2:$C$17</c:f>
+              <c:f>'05-03 bestByClassDist'!$E$2:$E$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.94617490658579595</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.584284269765035</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.90732957198119901</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.94125971866870395</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.60213837196612696</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.89079754041494097</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.883813621203003</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.65281965139387199</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.51841559871778597</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.76615402585558101</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.873240310261861</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.60240250537602102</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.97042383924398701</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.64448303696585596</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.88910994058597703</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.74208096520086897</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'05-09 bestByExp'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Words+Concepts</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'05-09 bestByExp'!$A$2:$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>Asthma</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>CAD</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>CHF</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Depression</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Diabetes</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Gallstones</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>GERD</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Gout</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Hypercholesterolemia</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Hypertension</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Hypertriglyceridemia</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>OA</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Obesity</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>OSA</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>PVD</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Venous Insufficiency</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>'05-09 bestByExp'!$D$2:$D$17</c:f>
+              <c:f>'05-03 bestByClassDist'!$F$2:$F$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.95038783436226604</c:v>
+                  <c:v>0.54921738607890502</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.59808003351412298</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8905919498889</c:v>
+                  <c:v>0.60672108537561498</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.93570261794715603</c:v>
+                  <c:v>0.61571193603009</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.571452077468104</c:v>
+                  <c:v>0.63775621578207897</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.89595436135713802</c:v>
+                  <c:v>0.64291386894301095</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.72367121695177705</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.78542502001772696</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>0.86370646635315595</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.63775621578207897</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.54921738607890502</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.78542502001772696</c:v>
+                  <c:v>0.87827161195859704</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.88418333952228301</c:v>
+                  <c:v>0.88454013348201499</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.61316852053507198</c:v>
+                  <c:v>0.89555306441556304</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.96917174457699695</c:v>
+                  <c:v>0.92299437668031703</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.64291386894301095</c:v>
+                  <c:v>0.94082026541111996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.92299437668031703</c:v>
+                  <c:v>0.95038783436226604</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.72482997008859396</c:v>
+                  <c:v>0.97020653956053204</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'05-09 bestByExp'!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Semantic Kernel</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'05-09 bestByExp'!$A$2:$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>Asthma</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>CAD</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>CHF</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Depression</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Diabetes</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Gallstones</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>GERD</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Gout</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Hypercholesterolemia</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Hypertension</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Hypertriglyceridemia</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>OA</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Obesity</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>OSA</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>PVD</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Venous Insufficiency</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'05-09 bestByExp'!$F$2:$F$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0.898146416678407</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.53911745715053405</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.58620854822053703</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.93442211978499901</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.51533857207082401</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.89081987756710002</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.49699948202414601</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.62191950651099703</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.48486244609848</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.57202108548168895</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.78332222519350903</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.55160570709517698</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.63501177050791902</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.62422954842253597</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.59681340123896098</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.50644876434107</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
+          </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1838,33 +1694,30 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="49661824"/>
-        <c:axId val="49663360"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="49661824"/>
+        <c:axId val="85771008"/>
+        <c:axId val="85772544"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="85771008"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49663360"/>
+        <c:crossAx val="85772544"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="49663360"/>
+        <c:axId val="85772544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
-          <c:min val="0.4"/>
+          <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1873,14 +1726,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49661824"/>
+        <c:crossAx val="85771008"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1889,7 +1741,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1909,150 +1761,304 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'05-03 bestByClassDist'!$F$1</c:f>
+              <c:f>'05-02-VecVsKern'!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>f1</c:v>
+                  <c:v>ambert_f1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln w="28575">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:xVal>
+          <c:invertIfNegative val="0"/>
+          <c:val>
             <c:numRef>
-              <c:f>'05-03 bestByClassDist'!$E$2:$E$17</c:f>
+              <c:f>'05-02-VecVsKern'!$B$2:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>0.90967281672681599</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>0.77769042543323796</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>0.70576021033756398</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1</c:v>
+                  <c:v>0.51434947845219303</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2</c:v>
+                  <c:v>0.87657427024380397</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8</c:v>
+                  <c:v>0.63027178942269502</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.65655666315362504</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.607017779992719</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1</c:v>
+                  <c:v>0.58568232376698504</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
+                  <c:v>0.87827161195859704</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.84899016721815701</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.60672108537561498</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1</c:v>
+                  <c:v>0.83763321005960301</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.51684790017469295</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>0.61150439986707295</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1</c:v>
+                  <c:v>0.52814825112223196</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:xVal>
-          <c:yVal>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'05-02-VecVsKern'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>bocuis_f1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
             <c:numRef>
-              <c:f>'05-03 bestByClassDist'!$F$2:$F$17</c:f>
+              <c:f>'05-02-VecVsKern'!$C$2:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.54921738607890502</c:v>
+                  <c:v>0.95038783436226604</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.59808003351412298</c:v>
+                  <c:v>0.78542502001772696</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.60672108537561498</c:v>
+                  <c:v>0.88454013348201499</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.61571193603009</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.63775621578207897</c:v>
+                  <c:v>0.97020653956053204</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0.64291386894301095</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.92299437668031703</c:v>
+                </c:pt>
+                <c:pt idx="7">
                   <c:v>0.72367121695177705</c:v>
                 </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.78542502001772696</c:v>
-                </c:pt>
                 <c:pt idx="8">
+                  <c:v>0.59808003351412298</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.87335342783312997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.93570261794715603</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.571452077468104</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.89555306441556304</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>0.86370646635315595</c:v>
                 </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.87827161195859704</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.88454013348201499</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.89555306441556304</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.92299437668031703</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.94082026541111996</c:v>
-                </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.95038783436226604</c:v>
+                  <c:v>0.63775621578207897</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.97020653956053204</c:v>
+                  <c:v>0.54921738607890502</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'05-02-VecVsKern'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>nrskern_f1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'05-02-VecVsKern'!$D$2:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.91282450286654104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.75432705683977497</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.76553442465281696</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55816516091491197</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.63143656592125397</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.62041531873715605</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.56893273113891396</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.57486260048837601</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.53407624866802805</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.57850581360740705</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.94082026541111996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.56065091304782899</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.87215821351152101</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.48877322414285101</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.62251063930252004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.48841623525436301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'05-02-VecVsKern'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>semkern_f1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>'05-02-VecVsKern'!$E$2:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.898146416678407</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.57202108548168895</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.78332222519350903</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55160570709517698</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.63501177050791902</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.62422954842253597</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.59681340123896098</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.50644876434107</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.53911745715053405</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.58620854822053703</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.93442211978499901</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.51533857207082401</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.89081987756710002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.49699948202414601</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.62191950651099703</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -2062,30 +2068,31 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="49675648"/>
-        <c:axId val="51172480"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="49675648"/>
+        <c:gapWidth val="150"/>
+        <c:axId val="85902464"/>
+        <c:axId val="85904000"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="85902464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51172480"/>
+        <c:crossAx val="85904000"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
       <c:valAx>
-        <c:axId val="51172480"/>
+        <c:axId val="85904000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0.5"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2094,14 +2101,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="49675648"/>
+        <c:crossAx val="85902464"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2142,19 +2148,75 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'05-02-VecVsKern'!$B$1</c:f>
+              <c:f>'04-30-AmbertVsCui'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>ambert_f1</c:v>
+                  <c:v>word</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'04-30-AmbertVsCui'!$B$2:$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Asthma</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Hypertension</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hypertriglyceridemia</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Obesity</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>OSA</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PVD</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Venous Insufficiency</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CAD</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>CHF</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Depression</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Diabetes</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Gallstones</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>GERD</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Gout</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Hypercholesterolemia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'05-02-VecVsKern'!$B$2:$B$17</c:f>
+              <c:f>'04-30-AmbertVsCui'!$C$2:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2215,19 +2277,75 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'05-02-VecVsKern'!$C$1</c:f>
+              <c:f>'04-30-AmbertVsCui'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>bocuis_f1</c:v>
+                  <c:v>word + concept</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'04-30-AmbertVsCui'!$B$2:$B$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Asthma</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Hypertension</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Hypertriglyceridemia</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>OA</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Obesity</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>OSA</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>PVD</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Venous Insufficiency</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>CAD</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>CHF</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Depression</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Diabetes</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Gallstones</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>GERD</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Gout</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Hypercholesterolemia</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'05-02-VecVsKern'!$C$2:$C$17</c:f>
+              <c:f>'04-30-AmbertVsCui'!$D$2:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2278,152 +2396,6 @@
                 </c:pt>
                 <c:pt idx="15">
                   <c:v>0.54921738607890502</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'05-02-VecVsKern'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>nrskern_f1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'05-02-VecVsKern'!$D$2:$D$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0.91282450286654104</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.75432705683977497</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.76553442465281696</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.55816516091491197</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.63143656592125397</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.62041531873715605</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.56893273113891396</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.57486260048837601</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.53407624866802805</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.57850581360740705</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.94082026541111996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.56065091304782899</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.87215821351152101</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.48877322414285101</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.62251063930252004</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.48841623525436301</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'05-02-VecVsKern'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>semkern_f1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:val>
-            <c:numRef>
-              <c:f>'05-02-VecVsKern'!$E$2:$E$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0.898146416678407</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.57202108548168895</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.78332222519350903</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.55160570709517698</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.63501177050791902</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.62422954842253597</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.59681340123896098</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.50644876434107</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.53911745715053405</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.58620854822053703</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.93442211978499901</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.51533857207082401</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.89081987756710002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.49699948202414601</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.62191950651099703</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2438,11 +2410,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="51326976"/>
-        <c:axId val="51328512"/>
+        <c:axId val="84487552"/>
+        <c:axId val="84501632"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="51326976"/>
+        <c:axId val="84487552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2451,7 +2423,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51328512"/>
+        <c:crossAx val="84501632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2459,9 +2431,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51328512"/>
+        <c:axId val="84501632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2470,7 +2443,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51326976"/>
+        <c:crossAx val="84487552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2486,7 +2459,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2518,7 +2491,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'04-30-AmbertVsCui'!$C$1</c:f>
+              <c:f>'05-09 eval_test'!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2530,113 +2503,113 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'04-30-AmbertVsCui'!$B$2:$B$17</c:f>
+              <c:f>'05-09 eval_test'!$A$2:$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>Asthma</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>CAD</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CHF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Depression</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Diabetes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Gallstones</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>GERD</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Gout</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Hypercholesterolemia</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Hypertension</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="10">
                   <c:v>Hypertriglyceridemia</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="11">
                   <c:v>OA</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="12">
                   <c:v>Obesity</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="13">
                   <c:v>OSA</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="14">
                   <c:v>PVD</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="15">
                   <c:v>Venous Insufficiency</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>CAD</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>CHF</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Depression</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Diabetes</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Gallstones</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>GERD</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Gout</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Hypercholesterolemia</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'04-30-AmbertVsCui'!$C$2:$C$17</c:f>
+              <c:f>'05-09 eval_test'!$C$2:$C$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.90967281672681599</c:v>
+                  <c:v>0.96575461844814003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.77769042543323796</c:v>
+                  <c:v>0.58987856676718997</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.70576021033756398</c:v>
+                  <c:v>0.597255720447604</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.51434947845219303</c:v>
+                  <c:v>0.900512409577646</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.87657427024380397</c:v>
+                  <c:v>0.91106084124824604</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.63027178942269502</c:v>
+                  <c:v>0.96383407329235704</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.65655666315362504</c:v>
+                  <c:v>0.57122630114852502</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.607017779992719</c:v>
+                  <c:v>0.95838664019560904</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.58568232376698504</c:v>
+                  <c:v>0.79913743382820002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.87827161195859704</c:v>
+                  <c:v>0.79742667910260401</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.84899016721815701</c:v>
+                  <c:v>0.64230661982042303</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.60672108537561498</c:v>
+                  <c:v>0.58221749002532097</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.83763321005960301</c:v>
+                  <c:v>0.49594233580321601</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.51684790017469295</c:v>
+                  <c:v>0.59889358808552495</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.61150439986707295</c:v>
+                  <c:v>0.60169652058211498</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.52814825112223196</c:v>
+                  <c:v>0.94275177163009705</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2647,11 +2620,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'04-30-AmbertVsCui'!$D$1</c:f>
+              <c:f>'05-09 eval_test'!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>word + concept</c:v>
+                  <c:v>word+concept</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2659,113 +2632,242 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'04-30-AmbertVsCui'!$B$2:$B$17</c:f>
+              <c:f>'05-09 eval_test'!$A$2:$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>Asthma</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>CAD</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CHF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Depression</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Diabetes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Gallstones</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>GERD</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Gout</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Hypercholesterolemia</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>Hypertension</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="10">
                   <c:v>Hypertriglyceridemia</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="11">
                   <c:v>OA</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="12">
                   <c:v>Obesity</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="13">
                   <c:v>OSA</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="14">
                   <c:v>PVD</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="15">
                   <c:v>Venous Insufficiency</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>CAD</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>CHF</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Depression</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>Diabetes</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Gallstones</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>GERD</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>Gout</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Hypercholesterolemia</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'04-30-AmbertVsCui'!$D$2:$D$17</c:f>
+              <c:f>'05-09 eval_test'!$D$2:$D$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
                 <c:pt idx="0">
-                  <c:v>0.95038783436226604</c:v>
+                  <c:v>0.95904999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.78542502001772696</c:v>
+                  <c:v>0.59162668062677903</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.88454013348201499</c:v>
+                  <c:v>0.59594863756259997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.61571193603009</c:v>
+                  <c:v>0.90412301986948196</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.97020653956053204</c:v>
+                  <c:v>0.90661040372951196</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.64291386894301095</c:v>
+                  <c:v>0.97708193021057299</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.92299437668031703</c:v>
+                  <c:v>0.56806935511639101</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.72367121695177705</c:v>
+                  <c:v>0.95705840459443403</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.59808003351412298</c:v>
+                  <c:v>0.79339146847342701</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.87335342783312997</c:v>
+                  <c:v>0.81037443008432697</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.93570261794715603</c:v>
+                  <c:v>0.81546507650873801</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.571452077468104</c:v>
+                  <c:v>0.57682835764555895</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.89555306441556304</c:v>
+                  <c:v>0.49326036282558</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.86370646635315595</c:v>
+                  <c:v>0.62326345275710304</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.63775621578207897</c:v>
+                  <c:v>0.60549518541560399</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.54921738607890502</c:v>
+                  <c:v>0.83132179840744702</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'05-09 eval_test'!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ambert</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'05-09 eval_test'!$A$2:$A$17</c:f>
+              <c:strCache>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>Asthma</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>CAD</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>CHF</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Depression</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Diabetes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Gallstones</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>GERD</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Gout</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Hypercholesterolemia</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Hypertension</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Hypertriglyceridemia</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>OA</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Obesity</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>OSA</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>PVD</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Venous Insufficiency</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'05-09 eval_test'!$E$2:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.63</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.61199999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.93500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.91500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.57899999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.98099999999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.91200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.876</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.63100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.97299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.65300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.623</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.72499999999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2780,11 +2882,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="51349376"/>
-        <c:axId val="51350912"/>
+        <c:axId val="84291584"/>
+        <c:axId val="84293120"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="51349376"/>
+        <c:axId val="84291584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2793,7 +2895,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51350912"/>
+        <c:crossAx val="84293120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2801,10 +2903,11 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51350912"/>
+        <c:axId val="84293120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
+          <c:min val="0.4"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2813,7 +2916,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51349376"/>
+        <c:crossAx val="84291584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2829,7 +2932,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2861,479 +2964,6 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'05-09 eval_test'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>word</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'05-09 eval_test'!$A$2:$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>Asthma</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>CAD</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>CHF</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Depression</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Diabetes</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Gallstones</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>GERD</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Gout</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Hypercholesterolemia</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Hypertension</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Hypertriglyceridemia</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>OA</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Obesity</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>OSA</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>PVD</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Venous Insufficiency</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'05-09 eval_test'!$C$2:$C$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0.96575461844814003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.58987856676718997</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.597255720447604</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.900512409577646</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.91106084124824604</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.96383407329235704</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.57122630114852502</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.95838664019560904</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.79913743382820002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.79742667910260401</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.64230661982042303</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.58221749002532097</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.49594233580321601</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.59889358808552495</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.60169652058211498</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.94275177163009705</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'05-09 eval_test'!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>word+concept</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'05-09 eval_test'!$A$2:$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>Asthma</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>CAD</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>CHF</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Depression</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Diabetes</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Gallstones</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>GERD</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Gout</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Hypercholesterolemia</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Hypertension</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Hypertriglyceridemia</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>OA</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Obesity</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>OSA</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>PVD</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Venous Insufficiency</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'05-09 eval_test'!$D$2:$D$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0.95904999999999996</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.59162668062677903</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.59594863756259997</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.90412301986948196</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.90661040372951196</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.97708193021057299</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.56806935511639101</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.95705840459443403</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.79339146847342701</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.81037443008432697</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.81546507650873801</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.57682835764555895</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.49326036282558</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.62326345275710304</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.60549518541560399</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.83132179840744702</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'05-09 eval_test'!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>ambert</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'05-09 eval_test'!$A$2:$A$17</c:f>
-              <c:strCache>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>Asthma</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>CAD</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>CHF</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Depression</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Diabetes</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Gallstones</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>GERD</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Gout</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Hypercholesterolemia</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Hypertension</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Hypertriglyceridemia</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>OA</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>Obesity</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>OSA</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>PVD</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>Venous Insufficiency</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'05-09 eval_test'!$E$2:$E$17</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0.97</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.63</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.61199999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.93500000000000005</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.91500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.96099999999999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.57899999999999996</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.98099999999999998</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.91200000000000003</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.89900000000000002</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.876</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.63100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.97299999999999998</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.65300000000000002</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.623</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.72499999999999998</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="52217344"/>
-        <c:axId val="52218880"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="52217344"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52218880"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="52218880"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-          <c:max val="1"/>
-          <c:min val="0.4"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="52217344"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
               <c:f>vecVsKern0.07!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
@@ -3527,11 +3157,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="51266304"/>
-        <c:axId val="51267840"/>
+        <c:axId val="84336000"/>
+        <c:axId val="84337792"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="51266304"/>
+        <c:axId val="84336000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3540,7 +3170,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51267840"/>
+        <c:crossAx val="84337792"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3548,7 +3178,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="51267840"/>
+        <c:axId val="84337792"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.4"/>
@@ -3560,7 +3190,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="51266304"/>
+        <c:crossAx val="84336000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3621,41 +3251,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>152400</xdr:colOff>
       <xdr:row>3</xdr:row>
@@ -3687,7 +3282,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3722,7 +3317,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3757,7 +3352,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3792,7 +3387,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -5297,7 +4892,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -5322,10 +4917,10 @@
         <v>19</v>
       </c>
       <c r="D2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>125</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>126</v>
       </c>
       <c r="H2" t="s">
         <v>123</v>
@@ -5336,25 +4931,25 @@
         <v>0.39453601167156999</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D3" s="3">
         <v>0.39407756052084802</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F3" s="6">
         <v>7.3767176416964106E-2</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="H3" s="3">
         <v>0.35039752639032801</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="45" x14ac:dyDescent="0.25">
@@ -5362,25 +4957,25 @@
         <v>0.13494917236031501</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D4" s="3">
         <v>7.7153438617393294E-2</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F4" s="6">
         <v>6.6736614121460799E-2</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="H4" s="3">
         <v>0.35039752639032801</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="2:9" ht="45" x14ac:dyDescent="0.25">
@@ -5388,25 +4983,25 @@
         <v>0.14142148770358001</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D5" s="3">
         <v>7.5074457911798995E-2</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F5" s="6">
         <v>6.5374722676645902E-2</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H5" s="3">
         <v>0.35039752639032801</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="75" x14ac:dyDescent="0.25">
@@ -5414,25 +5009,25 @@
         <v>0.156904028159988</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D6" s="3">
         <v>7.4768089625143905E-2</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F6" s="6">
         <v>6.41475448086887E-2</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H6" s="3">
         <v>0.35039752639032801</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="60" x14ac:dyDescent="0.25">
@@ -5440,25 +5035,25 @@
         <v>0.15445509019717901</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D7" s="3">
         <v>7.2146220589035095E-2</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F7" s="6">
         <v>6.3528491997369999E-2</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H7" s="3">
         <v>0.35039752639032801</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="45" x14ac:dyDescent="0.25">
@@ -5466,25 +5061,25 @@
         <v>0.13036047208096499</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D8" s="3">
         <v>6.9498134354751606E-2</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F8" s="6">
         <v>6.2711046077359195E-2</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H8" s="3">
         <v>0.35039752639032801</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="2:9" ht="60" x14ac:dyDescent="0.25">
@@ -5492,25 +5087,25 @@
         <v>0.1401792703585</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D9" s="3">
         <v>6.9252308706953106E-2</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F9" s="6">
         <v>6.04042778178547E-2</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H9" s="3">
         <v>0.35039752639032801</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="2:9" ht="45" x14ac:dyDescent="0.25">
@@ -5518,25 +5113,25 @@
         <v>0.14078543467052201</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D10" s="3">
         <v>6.8956784423806206E-2</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F10" s="6">
         <v>5.99708204939884E-2</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="H10" s="3">
         <v>0.35039752639032801</v>
       </c>
       <c r="I10" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="45" x14ac:dyDescent="0.25">
@@ -5544,25 +5139,25 @@
         <v>0.134141625163058</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D11" s="3">
         <v>6.8956784423806206E-2</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F11" s="6">
         <v>5.8264395434375803E-2</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H11" s="3">
         <v>0.35039752639032801</v>
       </c>
       <c r="I11" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="2:9" ht="45" x14ac:dyDescent="0.25">
@@ -5570,25 +5165,25 @@
         <v>0.138110423087903</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D12" s="3">
         <v>6.8238246776135894E-2</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F12" s="6">
         <v>5.82003855312518E-2</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H12" s="3">
         <v>0.34448010441904497</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
@@ -5659,25 +5254,4466 @@
       <c r="I27" s="3"/>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H465"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>184</v>
+      </c>
+      <c r="G1">
+        <v>0.89686761547301896</v>
+      </c>
+      <c r="H1">
+        <v>0.63961687753688801</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0.89686761547301896</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" t="s">
+        <v>186</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>187</v>
+      </c>
+      <c r="G3">
+        <v>0.869760537441712</v>
+      </c>
+      <c r="H3">
+        <v>0.53437431168953398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.869760537441712</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D5" t="s">
+        <v>189</v>
+      </c>
+      <c r="E5">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>190</v>
+      </c>
+      <c r="G5">
+        <v>0.71567167613915506</v>
+      </c>
+      <c r="H5">
+        <v>0.56427447736171799</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.71567167613915506</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>184</v>
+      </c>
+      <c r="G7">
+        <v>0.83098116423615498</v>
+      </c>
+      <c r="H7">
+        <v>0.63961687753688801</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.83098116423615498</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E9">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
+        <v>193</v>
+      </c>
+      <c r="G9">
+        <v>0.86069421605066299</v>
+      </c>
+      <c r="H9">
+        <v>0.59879168544832295</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>83</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>193</v>
+      </c>
+      <c r="G11">
+        <v>0.86069421605066299</v>
+      </c>
+      <c r="H11">
+        <v>0.59879168544832295</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="3">
+        <v>0.86069421605066299</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>50</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>194</v>
+      </c>
+      <c r="G13">
+        <v>0.63015050422690499</v>
+      </c>
+      <c r="H13">
+        <v>0.50800049643695599</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15">
+        <v>6</v>
+      </c>
+      <c r="F15" t="s">
+        <v>195</v>
+      </c>
+      <c r="G15">
+        <v>0.81422837772090595</v>
+      </c>
+      <c r="H15">
+        <v>0.56427447736171799</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="3">
+        <v>0.81422837772090595</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17">
+        <v>6</v>
+      </c>
+      <c r="F17" t="s">
+        <v>195</v>
+      </c>
+      <c r="G17">
+        <v>0.81422837772090595</v>
+      </c>
+      <c r="H17">
+        <v>0.56427447736171799</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D19" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="F19" t="s">
+        <v>196</v>
+      </c>
+      <c r="G19">
+        <v>0.92683748390796294</v>
+      </c>
+      <c r="H19">
+        <v>0.63961687753688801</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C20">
+        <v>0.92683748390796294</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21">
+        <v>16</v>
+      </c>
+      <c r="F21" t="s">
+        <v>197</v>
+      </c>
+      <c r="G21" s="9">
+        <v>1.37954551275323E-4</v>
+      </c>
+      <c r="H21">
+        <v>0.36559076703311999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+      <c r="G22" s="9"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>198</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" t="s">
+        <v>82</v>
+      </c>
+      <c r="F24" t="s">
+        <v>198</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>145</v>
+      </c>
+      <c r="B25" s="3">
+        <v>2</v>
+      </c>
+      <c r="C25" s="3">
+        <v>0</v>
+      </c>
+      <c r="F25" s="3">
+        <v>49</v>
+      </c>
+      <c r="G25" s="3">
+        <v>3</v>
+      </c>
+      <c r="H25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
+        <v>537</v>
+      </c>
+      <c r="B26" s="3">
+        <v>0</v>
+      </c>
+      <c r="C26" s="3">
+        <v>2</v>
+      </c>
+      <c r="F26" s="3">
+        <v>59</v>
+      </c>
+      <c r="G26" s="3">
+        <v>0</v>
+      </c>
+      <c r="H26" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>686</v>
+      </c>
+      <c r="B27" s="3">
+        <v>2</v>
+      </c>
+      <c r="C27" s="3">
+        <v>0</v>
+      </c>
+      <c r="F27" s="3">
+        <v>65</v>
+      </c>
+      <c r="G27" s="3">
+        <v>0</v>
+      </c>
+      <c r="H27" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="3">
+        <v>755</v>
+      </c>
+      <c r="B28" s="3">
+        <v>3</v>
+      </c>
+      <c r="C28" s="3">
+        <v>2</v>
+      </c>
+      <c r="F28" s="3">
+        <v>71</v>
+      </c>
+      <c r="G28" s="3">
+        <v>2</v>
+      </c>
+      <c r="H28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>895</v>
+      </c>
+      <c r="B29" s="3">
+        <v>1</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
+        <v>75</v>
+      </c>
+      <c r="G29" s="3">
+        <v>0</v>
+      </c>
+      <c r="H29" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
+        <v>903</v>
+      </c>
+      <c r="B30" s="3">
+        <v>3</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0</v>
+      </c>
+      <c r="F30" s="3">
+        <v>79</v>
+      </c>
+      <c r="G30" s="3">
+        <v>1</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>912</v>
+      </c>
+      <c r="B31" s="3">
+        <v>2</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0</v>
+      </c>
+      <c r="F31" s="3">
+        <v>91</v>
+      </c>
+      <c r="G31" s="3">
+        <v>0</v>
+      </c>
+      <c r="H31" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="3">
+        <v>957</v>
+      </c>
+      <c r="B32" s="3">
+        <v>1</v>
+      </c>
+      <c r="C32" s="3">
+        <v>0</v>
+      </c>
+      <c r="F32" s="3">
+        <v>93</v>
+      </c>
+      <c r="G32" s="3">
+        <v>0</v>
+      </c>
+      <c r="H32" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>1012</v>
+      </c>
+      <c r="B33" s="3">
+        <v>0</v>
+      </c>
+      <c r="C33" s="3">
+        <v>1</v>
+      </c>
+      <c r="F33" s="3">
+        <v>104</v>
+      </c>
+      <c r="G33" s="3">
+        <v>2</v>
+      </c>
+      <c r="H33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>1184</v>
+      </c>
+      <c r="B34" s="3">
+        <v>0</v>
+      </c>
+      <c r="C34" s="3">
+        <v>4</v>
+      </c>
+      <c r="F34" s="3">
+        <v>108</v>
+      </c>
+      <c r="G34" s="3">
+        <v>1</v>
+      </c>
+      <c r="H34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>1189</v>
+      </c>
+      <c r="B35" s="3">
+        <v>0</v>
+      </c>
+      <c r="C35" s="3">
+        <v>2</v>
+      </c>
+      <c r="F35" s="3">
+        <v>128</v>
+      </c>
+      <c r="G35" s="3">
+        <v>0</v>
+      </c>
+      <c r="H35" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="3">
+        <v>1194</v>
+      </c>
+      <c r="B36" s="3">
+        <v>0</v>
+      </c>
+      <c r="C36" s="3">
+        <v>4</v>
+      </c>
+      <c r="F36" s="3">
+        <v>134</v>
+      </c>
+      <c r="G36" s="3">
+        <v>0</v>
+      </c>
+      <c r="H36" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>1248</v>
+      </c>
+      <c r="B37" s="3">
+        <v>1</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0</v>
+      </c>
+      <c r="F37" s="3">
+        <v>145</v>
+      </c>
+      <c r="G37" s="3">
+        <v>2</v>
+      </c>
+      <c r="H37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="F38" s="3">
+        <v>151</v>
+      </c>
+      <c r="G38" s="3">
+        <v>0</v>
+      </c>
+      <c r="H38" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="F39" s="3">
+        <v>155</v>
+      </c>
+      <c r="G39" s="3">
+        <v>0</v>
+      </c>
+      <c r="H39" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="F40" s="3">
+        <v>160</v>
+      </c>
+      <c r="G40" s="3">
+        <v>0</v>
+      </c>
+      <c r="H40" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="F41" s="3">
+        <v>166</v>
+      </c>
+      <c r="G41" s="3">
+        <v>0</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="F42" s="3">
+        <v>184</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="F43" s="3">
+        <v>186</v>
+      </c>
+      <c r="G43" s="3">
+        <v>1</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="F44" s="3">
+        <v>189</v>
+      </c>
+      <c r="G44" s="3">
+        <v>1</v>
+      </c>
+      <c r="H44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="F45" s="3">
+        <v>214</v>
+      </c>
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="F46" s="3">
+        <v>246</v>
+      </c>
+      <c r="G46" s="3">
+        <v>0</v>
+      </c>
+      <c r="H46" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="F47" s="3">
+        <v>258</v>
+      </c>
+      <c r="G47" s="3">
+        <v>1</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="F48" s="3">
+        <v>263</v>
+      </c>
+      <c r="G48" s="3">
+        <v>0</v>
+      </c>
+      <c r="H48" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="F49" s="3">
+        <v>266</v>
+      </c>
+      <c r="G49" s="3">
+        <v>1</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="F50" s="3">
+        <v>267</v>
+      </c>
+      <c r="G50" s="3">
+        <v>0</v>
+      </c>
+      <c r="H50" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="F51" s="3">
+        <v>270</v>
+      </c>
+      <c r="G51" s="3">
+        <v>0</v>
+      </c>
+      <c r="H51" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="F52" s="3">
+        <v>277</v>
+      </c>
+      <c r="G52" s="3">
+        <v>2</v>
+      </c>
+      <c r="H52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="F53" s="3">
+        <v>291</v>
+      </c>
+      <c r="G53" s="3">
+        <v>0</v>
+      </c>
+      <c r="H53" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="F54" s="3">
+        <v>293</v>
+      </c>
+      <c r="G54" s="3">
+        <v>2</v>
+      </c>
+      <c r="H54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="F55" s="3">
+        <v>299</v>
+      </c>
+      <c r="G55" s="3">
+        <v>1</v>
+      </c>
+      <c r="H55" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="F56" s="3">
+        <v>331</v>
+      </c>
+      <c r="G56" s="3">
+        <v>0</v>
+      </c>
+      <c r="H56" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="F57" s="3">
+        <v>336</v>
+      </c>
+      <c r="G57" s="3">
+        <v>1</v>
+      </c>
+      <c r="H57" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="F58" s="3">
+        <v>346</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1</v>
+      </c>
+      <c r="H58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="F59" s="3">
+        <v>348</v>
+      </c>
+      <c r="G59" s="3">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="F60" s="3">
+        <v>352</v>
+      </c>
+      <c r="G60" s="3">
+        <v>0</v>
+      </c>
+      <c r="H60" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="F61" s="3">
+        <v>364</v>
+      </c>
+      <c r="G61" s="3">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="F62" s="3">
+        <v>377</v>
+      </c>
+      <c r="G62" s="3">
+        <v>1</v>
+      </c>
+      <c r="H62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="F63" s="3">
+        <v>381</v>
+      </c>
+      <c r="G63" s="3">
+        <v>0</v>
+      </c>
+      <c r="H63" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="F64" s="3">
+        <v>391</v>
+      </c>
+      <c r="G64" s="3">
+        <v>1</v>
+      </c>
+      <c r="H64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="F65" s="3">
+        <v>415</v>
+      </c>
+      <c r="G65" s="3">
+        <v>0</v>
+      </c>
+      <c r="H65" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="F66" s="3">
+        <v>430</v>
+      </c>
+      <c r="G66" s="3">
+        <v>1</v>
+      </c>
+      <c r="H66" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="F67" s="3">
+        <v>437</v>
+      </c>
+      <c r="G67" s="3">
+        <v>1</v>
+      </c>
+      <c r="H67" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="F68" s="3">
+        <v>444</v>
+      </c>
+      <c r="G68" s="3">
+        <v>0</v>
+      </c>
+      <c r="H68" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="F69" s="3">
+        <v>469</v>
+      </c>
+      <c r="G69" s="3">
+        <v>1</v>
+      </c>
+      <c r="H69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="F70" s="3">
+        <v>494</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0</v>
+      </c>
+      <c r="H70" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="F71" s="3">
+        <v>496</v>
+      </c>
+      <c r="G71" s="3">
+        <v>1</v>
+      </c>
+      <c r="H71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="F72" s="3">
+        <v>497</v>
+      </c>
+      <c r="G72" s="3">
+        <v>0</v>
+      </c>
+      <c r="H72" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="F73" s="3">
+        <v>505</v>
+      </c>
+      <c r="G73" s="3">
+        <v>2</v>
+      </c>
+      <c r="H73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="F74" s="3">
+        <v>506</v>
+      </c>
+      <c r="G74" s="3">
+        <v>0</v>
+      </c>
+      <c r="H74" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="F75" s="3">
+        <v>507</v>
+      </c>
+      <c r="G75" s="3">
+        <v>3</v>
+      </c>
+      <c r="H75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="F76" s="3">
+        <v>508</v>
+      </c>
+      <c r="G76" s="3">
+        <v>0</v>
+      </c>
+      <c r="H76" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="F77" s="3">
+        <v>516</v>
+      </c>
+      <c r="G77" s="3">
+        <v>1</v>
+      </c>
+      <c r="H77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="F78" s="3">
+        <v>519</v>
+      </c>
+      <c r="G78" s="3">
+        <v>0</v>
+      </c>
+      <c r="H78" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="F79" s="3">
+        <v>533</v>
+      </c>
+      <c r="G79" s="3">
+        <v>2</v>
+      </c>
+      <c r="H79" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="F80" s="3">
+        <v>537</v>
+      </c>
+      <c r="G80" s="3">
+        <v>0</v>
+      </c>
+      <c r="H80" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="F81" s="3">
+        <v>549</v>
+      </c>
+      <c r="G81" s="3">
+        <v>0</v>
+      </c>
+      <c r="H81" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="F82" s="3">
+        <v>553</v>
+      </c>
+      <c r="G82" s="3">
+        <v>2</v>
+      </c>
+      <c r="H82" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="F83" s="3">
+        <v>554</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="F84" s="3">
+        <v>564</v>
+      </c>
+      <c r="G84" s="3">
+        <v>0</v>
+      </c>
+      <c r="H84" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="F85" s="3">
+        <v>570</v>
+      </c>
+      <c r="G85" s="3">
+        <v>1</v>
+      </c>
+      <c r="H85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="F86" s="3">
+        <v>577</v>
+      </c>
+      <c r="G86" s="3">
+        <v>1</v>
+      </c>
+      <c r="H86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="F87" s="3">
+        <v>608</v>
+      </c>
+      <c r="G87" s="3">
+        <v>1</v>
+      </c>
+      <c r="H87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="F88" s="3">
+        <v>614</v>
+      </c>
+      <c r="G88" s="3">
+        <v>1</v>
+      </c>
+      <c r="H88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="F89" s="3">
+        <v>617</v>
+      </c>
+      <c r="G89" s="3">
+        <v>2</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="F90" s="3">
+        <v>622</v>
+      </c>
+      <c r="G90" s="3">
+        <v>1</v>
+      </c>
+      <c r="H90" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="F91" s="3">
+        <v>627</v>
+      </c>
+      <c r="G91" s="3">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="F92" s="3">
+        <v>631</v>
+      </c>
+      <c r="G92" s="3">
+        <v>2</v>
+      </c>
+      <c r="H92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="F93" s="3">
+        <v>636</v>
+      </c>
+      <c r="G93" s="3">
+        <v>0</v>
+      </c>
+      <c r="H93" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="F94" s="3">
+        <v>639</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="F95" s="3">
+        <v>644</v>
+      </c>
+      <c r="G95" s="3">
+        <v>1</v>
+      </c>
+      <c r="H95" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="F96" s="3">
+        <v>645</v>
+      </c>
+      <c r="G96" s="3">
+        <v>0</v>
+      </c>
+      <c r="H96" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="F97" s="3">
+        <v>648</v>
+      </c>
+      <c r="G97" s="3">
+        <v>0</v>
+      </c>
+      <c r="H97" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="F98" s="3">
+        <v>657</v>
+      </c>
+      <c r="G98" s="3">
+        <v>0</v>
+      </c>
+      <c r="H98" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="F99" s="3">
+        <v>664</v>
+      </c>
+      <c r="G99" s="3">
+        <v>3</v>
+      </c>
+      <c r="H99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="F100" s="3">
+        <v>667</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="F101" s="3">
+        <v>672</v>
+      </c>
+      <c r="G101" s="3">
+        <v>1</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="F102" s="3">
+        <v>678</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="F103" s="3">
+        <v>686</v>
+      </c>
+      <c r="G103" s="3">
+        <v>2</v>
+      </c>
+      <c r="H103" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="F104" s="3">
+        <v>701</v>
+      </c>
+      <c r="G104" s="3">
+        <v>1</v>
+      </c>
+      <c r="H104" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="F105" s="3">
+        <v>703</v>
+      </c>
+      <c r="G105" s="3">
+        <v>3</v>
+      </c>
+      <c r="H105" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" s="3"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="F106" s="3">
+        <v>704</v>
+      </c>
+      <c r="G106" s="3">
+        <v>0</v>
+      </c>
+      <c r="H106" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" s="3"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="F107" s="3">
+        <v>708</v>
+      </c>
+      <c r="G107" s="3">
+        <v>0</v>
+      </c>
+      <c r="H107" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" s="3"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="F108" s="3">
+        <v>713</v>
+      </c>
+      <c r="G108" s="3">
+        <v>1</v>
+      </c>
+      <c r="H108" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" s="3"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="F109" s="3">
+        <v>728</v>
+      </c>
+      <c r="G109" s="3">
+        <v>0</v>
+      </c>
+      <c r="H109" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A110" s="3"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="F110" s="3">
+        <v>743</v>
+      </c>
+      <c r="G110" s="3">
+        <v>1</v>
+      </c>
+      <c r="H110" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A111" s="3"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="F111" s="3">
+        <v>747</v>
+      </c>
+      <c r="G111" s="3">
+        <v>1</v>
+      </c>
+      <c r="H111" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" s="3"/>
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="F112" s="3">
+        <v>753</v>
+      </c>
+      <c r="G112" s="3">
+        <v>0</v>
+      </c>
+      <c r="H112" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" s="3"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="F113" s="3">
+        <v>755</v>
+      </c>
+      <c r="G113" s="3">
+        <v>3</v>
+      </c>
+      <c r="H113" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" s="3"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="F114" s="3">
+        <v>767</v>
+      </c>
+      <c r="G114" s="3">
+        <v>1</v>
+      </c>
+      <c r="H114" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" s="3"/>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="F115" s="3">
+        <v>770</v>
+      </c>
+      <c r="G115" s="3">
+        <v>0</v>
+      </c>
+      <c r="H115" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A116" s="3"/>
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+      <c r="F116" s="3">
+        <v>771</v>
+      </c>
+      <c r="G116" s="3">
+        <v>0</v>
+      </c>
+      <c r="H116" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A117" s="3"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="F117" s="3">
+        <v>776</v>
+      </c>
+      <c r="G117" s="3">
+        <v>0</v>
+      </c>
+      <c r="H117" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" s="3"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="F118" s="3">
+        <v>780</v>
+      </c>
+      <c r="G118" s="3">
+        <v>0</v>
+      </c>
+      <c r="H118" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" s="3"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+      <c r="F119" s="3">
+        <v>783</v>
+      </c>
+      <c r="G119" s="3">
+        <v>1</v>
+      </c>
+      <c r="H119" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" s="3"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="F120" s="3">
+        <v>788</v>
+      </c>
+      <c r="G120" s="3">
+        <v>1</v>
+      </c>
+      <c r="H120" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A121" s="3"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="F121" s="3">
+        <v>791</v>
+      </c>
+      <c r="G121" s="3">
+        <v>2</v>
+      </c>
+      <c r="H121" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" s="3"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+      <c r="F122" s="3">
+        <v>796</v>
+      </c>
+      <c r="G122" s="3">
+        <v>0</v>
+      </c>
+      <c r="H122" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" s="3"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
+      <c r="F123" s="3">
+        <v>798</v>
+      </c>
+      <c r="G123" s="3">
+        <v>0</v>
+      </c>
+      <c r="H123" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A124" s="3"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
+      <c r="F124" s="3">
+        <v>799</v>
+      </c>
+      <c r="G124" s="3">
+        <v>0</v>
+      </c>
+      <c r="H124" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" s="3"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="F125" s="3">
+        <v>815</v>
+      </c>
+      <c r="G125" s="3">
+        <v>0</v>
+      </c>
+      <c r="H125" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A126" s="3"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+      <c r="F126" s="3">
+        <v>846</v>
+      </c>
+      <c r="G126" s="3">
+        <v>0</v>
+      </c>
+      <c r="H126" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A127" s="3"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="F127" s="3">
+        <v>847</v>
+      </c>
+      <c r="G127" s="3">
+        <v>0</v>
+      </c>
+      <c r="H127" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A128" s="3"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="F128" s="3">
+        <v>855</v>
+      </c>
+      <c r="G128" s="3">
+        <v>0</v>
+      </c>
+      <c r="H128" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A129" s="3"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="F129" s="3">
+        <v>856</v>
+      </c>
+      <c r="G129" s="3">
+        <v>1</v>
+      </c>
+      <c r="H129" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A130" s="3"/>
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="F130" s="3">
+        <v>861</v>
+      </c>
+      <c r="G130" s="3">
+        <v>1</v>
+      </c>
+      <c r="H130" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A131" s="3"/>
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
+      <c r="F131" s="3">
+        <v>872</v>
+      </c>
+      <c r="G131" s="3">
+        <v>1</v>
+      </c>
+      <c r="H131" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A132" s="3"/>
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+      <c r="F132" s="3">
+        <v>874</v>
+      </c>
+      <c r="G132" s="3">
+        <v>2</v>
+      </c>
+      <c r="H132" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A133" s="3"/>
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+      <c r="F133" s="3">
+        <v>881</v>
+      </c>
+      <c r="G133" s="3">
+        <v>0</v>
+      </c>
+      <c r="H133" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A134" s="3"/>
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+      <c r="F134" s="3">
+        <v>882</v>
+      </c>
+      <c r="G134" s="3">
+        <v>0</v>
+      </c>
+      <c r="H134" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A135" s="3"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="F135" s="3">
+        <v>895</v>
+      </c>
+      <c r="G135" s="3">
+        <v>1</v>
+      </c>
+      <c r="H135" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A136" s="3"/>
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
+      <c r="F136" s="3">
+        <v>897</v>
+      </c>
+      <c r="G136" s="3">
+        <v>0</v>
+      </c>
+      <c r="H136" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A137" s="3"/>
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+      <c r="F137" s="3">
+        <v>900</v>
+      </c>
+      <c r="G137" s="3">
+        <v>2</v>
+      </c>
+      <c r="H137" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A138" s="3"/>
+      <c r="B138" s="3"/>
+      <c r="C138" s="3"/>
+      <c r="F138" s="3">
+        <v>902</v>
+      </c>
+      <c r="G138" s="3">
+        <v>0</v>
+      </c>
+      <c r="H138" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A139" s="3"/>
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+      <c r="F139" s="3">
+        <v>903</v>
+      </c>
+      <c r="G139" s="3">
+        <v>3</v>
+      </c>
+      <c r="H139" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A140" s="3"/>
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+      <c r="F140" s="3">
+        <v>905</v>
+      </c>
+      <c r="G140" s="3">
+        <v>0</v>
+      </c>
+      <c r="H140" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A141" s="3"/>
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+      <c r="F141" s="3">
+        <v>912</v>
+      </c>
+      <c r="G141" s="3">
+        <v>2</v>
+      </c>
+      <c r="H141" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A142" s="3"/>
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+      <c r="F142" s="3">
+        <v>913</v>
+      </c>
+      <c r="G142" s="3">
+        <v>0</v>
+      </c>
+      <c r="H142" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A143" s="3"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="F143" s="3">
+        <v>915</v>
+      </c>
+      <c r="G143" s="3">
+        <v>2</v>
+      </c>
+      <c r="H143" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A144" s="3"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+      <c r="F144" s="3">
+        <v>923</v>
+      </c>
+      <c r="G144" s="3">
+        <v>0</v>
+      </c>
+      <c r="H144" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A145" s="3"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="F145" s="3">
+        <v>924</v>
+      </c>
+      <c r="G145" s="3">
+        <v>1</v>
+      </c>
+      <c r="H145" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A146" s="3"/>
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+      <c r="F146" s="3">
+        <v>926</v>
+      </c>
+      <c r="G146" s="3">
+        <v>3</v>
+      </c>
+      <c r="H146" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A147" s="3"/>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="F147" s="3">
+        <v>929</v>
+      </c>
+      <c r="G147" s="3">
+        <v>2</v>
+      </c>
+      <c r="H147" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A148" s="3"/>
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+      <c r="F148" s="3">
+        <v>933</v>
+      </c>
+      <c r="G148" s="3">
+        <v>1</v>
+      </c>
+      <c r="H148" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A149" s="3"/>
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+      <c r="F149" s="3">
+        <v>936</v>
+      </c>
+      <c r="G149" s="3">
+        <v>0</v>
+      </c>
+      <c r="H149" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A150" s="3"/>
+      <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
+      <c r="F150" s="3">
+        <v>945</v>
+      </c>
+      <c r="G150" s="3">
+        <v>2</v>
+      </c>
+      <c r="H150" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="3"/>
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
+      <c r="F151" s="3">
+        <v>947</v>
+      </c>
+      <c r="G151" s="3">
+        <v>0</v>
+      </c>
+      <c r="H151" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="3"/>
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
+      <c r="F152" s="3">
+        <v>949</v>
+      </c>
+      <c r="G152" s="3">
+        <v>0</v>
+      </c>
+      <c r="H152" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="3"/>
+      <c r="B153" s="3"/>
+      <c r="C153" s="3"/>
+      <c r="F153" s="3">
+        <v>952</v>
+      </c>
+      <c r="G153" s="3">
+        <v>2</v>
+      </c>
+      <c r="H153" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="3"/>
+      <c r="B154" s="3"/>
+      <c r="C154" s="3"/>
+      <c r="F154" s="3">
+        <v>954</v>
+      </c>
+      <c r="G154" s="3">
+        <v>5</v>
+      </c>
+      <c r="H154" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="3"/>
+      <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
+      <c r="F155" s="3">
+        <v>957</v>
+      </c>
+      <c r="G155" s="3">
+        <v>1</v>
+      </c>
+      <c r="H155" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="3"/>
+      <c r="B156" s="3"/>
+      <c r="C156" s="3"/>
+      <c r="F156" s="3">
+        <v>963</v>
+      </c>
+      <c r="G156" s="3">
+        <v>4</v>
+      </c>
+      <c r="H156" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="3"/>
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
+      <c r="F157" s="3">
+        <v>964</v>
+      </c>
+      <c r="G157" s="3">
+        <v>0</v>
+      </c>
+      <c r="H157" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="3"/>
+      <c r="B158" s="3"/>
+      <c r="C158" s="3"/>
+      <c r="F158" s="3">
+        <v>967</v>
+      </c>
+      <c r="G158" s="3">
+        <v>0</v>
+      </c>
+      <c r="H158" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="3"/>
+      <c r="B159" s="3"/>
+      <c r="C159" s="3"/>
+      <c r="F159" s="3">
+        <v>968</v>
+      </c>
+      <c r="G159" s="3">
+        <v>2</v>
+      </c>
+      <c r="H159" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="3"/>
+      <c r="B160" s="3"/>
+      <c r="C160" s="3"/>
+      <c r="F160" s="3">
+        <v>971</v>
+      </c>
+      <c r="G160" s="3">
+        <v>1</v>
+      </c>
+      <c r="H160" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="3"/>
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
+      <c r="F161" s="3">
+        <v>973</v>
+      </c>
+      <c r="G161" s="3">
+        <v>1</v>
+      </c>
+      <c r="H161" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="3"/>
+      <c r="B162" s="3"/>
+      <c r="C162" s="3"/>
+      <c r="F162" s="3">
+        <v>975</v>
+      </c>
+      <c r="G162" s="3">
+        <v>1</v>
+      </c>
+      <c r="H162" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="3"/>
+      <c r="B163" s="3"/>
+      <c r="C163" s="3"/>
+      <c r="F163" s="3">
+        <v>984</v>
+      </c>
+      <c r="G163" s="3">
+        <v>0</v>
+      </c>
+      <c r="H163" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="3"/>
+      <c r="B164" s="3"/>
+      <c r="C164" s="3"/>
+      <c r="F164" s="3">
+        <v>991</v>
+      </c>
+      <c r="G164" s="3">
+        <v>0</v>
+      </c>
+      <c r="H164" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="3"/>
+      <c r="B165" s="3"/>
+      <c r="C165" s="3"/>
+      <c r="F165" s="3">
+        <v>1004</v>
+      </c>
+      <c r="G165" s="3">
+        <v>0</v>
+      </c>
+      <c r="H165" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="3"/>
+      <c r="B166" s="3"/>
+      <c r="C166" s="3"/>
+      <c r="F166" s="3">
+        <v>1007</v>
+      </c>
+      <c r="G166" s="3">
+        <v>1</v>
+      </c>
+      <c r="H166" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="3"/>
+      <c r="B167" s="3"/>
+      <c r="C167" s="3"/>
+      <c r="F167" s="3">
+        <v>1012</v>
+      </c>
+      <c r="G167" s="3">
+        <v>0</v>
+      </c>
+      <c r="H167" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="3"/>
+      <c r="B168" s="3"/>
+      <c r="C168" s="3"/>
+      <c r="F168" s="3">
+        <v>1023</v>
+      </c>
+      <c r="G168" s="3">
+        <v>1</v>
+      </c>
+      <c r="H168" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="3"/>
+      <c r="B169" s="3"/>
+      <c r="C169" s="3"/>
+      <c r="F169" s="3">
+        <v>1024</v>
+      </c>
+      <c r="G169" s="3">
+        <v>0</v>
+      </c>
+      <c r="H169" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="3"/>
+      <c r="B170" s="3"/>
+      <c r="C170" s="3"/>
+      <c r="F170" s="3">
+        <v>1026</v>
+      </c>
+      <c r="G170" s="3">
+        <v>0</v>
+      </c>
+      <c r="H170" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="3"/>
+      <c r="B171" s="3"/>
+      <c r="C171" s="3"/>
+      <c r="F171" s="3">
+        <v>1031</v>
+      </c>
+      <c r="G171" s="3">
+        <v>0</v>
+      </c>
+      <c r="H171" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="3"/>
+      <c r="B172" s="3"/>
+      <c r="C172" s="3"/>
+      <c r="F172" s="3">
+        <v>1034</v>
+      </c>
+      <c r="G172" s="3">
+        <v>2</v>
+      </c>
+      <c r="H172" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="3"/>
+      <c r="B173" s="3"/>
+      <c r="C173" s="3"/>
+      <c r="F173" s="3">
+        <v>1047</v>
+      </c>
+      <c r="G173" s="3">
+        <v>1</v>
+      </c>
+      <c r="H173" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="3"/>
+      <c r="B174" s="3"/>
+      <c r="C174" s="3"/>
+      <c r="F174" s="3">
+        <v>1055</v>
+      </c>
+      <c r="G174" s="3">
+        <v>0</v>
+      </c>
+      <c r="H174" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="3"/>
+      <c r="B175" s="3"/>
+      <c r="C175" s="3"/>
+      <c r="F175" s="3">
+        <v>1057</v>
+      </c>
+      <c r="G175" s="3">
+        <v>0</v>
+      </c>
+      <c r="H175" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="3"/>
+      <c r="B176" s="3"/>
+      <c r="C176" s="3"/>
+      <c r="F176" s="3">
+        <v>1060</v>
+      </c>
+      <c r="G176" s="3">
+        <v>0</v>
+      </c>
+      <c r="H176" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="3"/>
+      <c r="B177" s="3"/>
+      <c r="C177" s="3"/>
+      <c r="F177" s="3">
+        <v>1061</v>
+      </c>
+      <c r="G177" s="3">
+        <v>2</v>
+      </c>
+      <c r="H177" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="3"/>
+      <c r="B178" s="3"/>
+      <c r="C178" s="3"/>
+      <c r="F178" s="3">
+        <v>1064</v>
+      </c>
+      <c r="G178" s="3">
+        <v>0</v>
+      </c>
+      <c r="H178" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="3"/>
+      <c r="B179" s="3"/>
+      <c r="C179" s="3"/>
+      <c r="F179" s="3">
+        <v>1066</v>
+      </c>
+      <c r="G179" s="3">
+        <v>3</v>
+      </c>
+      <c r="H179" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="3"/>
+      <c r="B180" s="3"/>
+      <c r="C180" s="3"/>
+      <c r="F180" s="3">
+        <v>1067</v>
+      </c>
+      <c r="G180" s="3">
+        <v>0</v>
+      </c>
+      <c r="H180" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="3"/>
+      <c r="B181" s="3"/>
+      <c r="C181" s="3"/>
+      <c r="F181" s="3">
+        <v>1070</v>
+      </c>
+      <c r="G181" s="3">
+        <v>2</v>
+      </c>
+      <c r="H181" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="3"/>
+      <c r="B182" s="3"/>
+      <c r="C182" s="3"/>
+      <c r="F182" s="3">
+        <v>1076</v>
+      </c>
+      <c r="G182" s="3">
+        <v>0</v>
+      </c>
+      <c r="H182" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="3"/>
+      <c r="B183" s="3"/>
+      <c r="C183" s="3"/>
+      <c r="F183" s="3">
+        <v>1078</v>
+      </c>
+      <c r="G183" s="3">
+        <v>0</v>
+      </c>
+      <c r="H183" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="3"/>
+      <c r="B184" s="3"/>
+      <c r="C184" s="3"/>
+      <c r="F184" s="3">
+        <v>1081</v>
+      </c>
+      <c r="G184" s="3">
+        <v>1</v>
+      </c>
+      <c r="H184" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="3"/>
+      <c r="B185" s="3"/>
+      <c r="C185" s="3"/>
+      <c r="F185" s="3">
+        <v>1084</v>
+      </c>
+      <c r="G185" s="3">
+        <v>2</v>
+      </c>
+      <c r="H185" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="3"/>
+      <c r="B186" s="3"/>
+      <c r="C186" s="3"/>
+      <c r="F186" s="3">
+        <v>1085</v>
+      </c>
+      <c r="G186" s="3">
+        <v>0</v>
+      </c>
+      <c r="H186" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A187" s="3"/>
+      <c r="B187" s="3"/>
+      <c r="C187" s="3"/>
+      <c r="F187" s="3">
+        <v>1089</v>
+      </c>
+      <c r="G187" s="3">
+        <v>2</v>
+      </c>
+      <c r="H187" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A188" s="3"/>
+      <c r="B188" s="3"/>
+      <c r="C188" s="3"/>
+      <c r="F188" s="3">
+        <v>1097</v>
+      </c>
+      <c r="G188" s="3">
+        <v>1</v>
+      </c>
+      <c r="H188" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" s="3"/>
+      <c r="B189" s="3"/>
+      <c r="C189" s="3"/>
+      <c r="F189" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G189" s="3">
+        <v>0</v>
+      </c>
+      <c r="H189" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" s="3"/>
+      <c r="B190" s="3"/>
+      <c r="C190" s="3"/>
+      <c r="F190" s="3">
+        <v>1103</v>
+      </c>
+      <c r="G190" s="3">
+        <v>0</v>
+      </c>
+      <c r="H190" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" s="3"/>
+      <c r="B191" s="3"/>
+      <c r="C191" s="3"/>
+      <c r="F191" s="3">
+        <v>1105</v>
+      </c>
+      <c r="G191" s="3">
+        <v>1</v>
+      </c>
+      <c r="H191" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" s="3"/>
+      <c r="B192" s="3"/>
+      <c r="C192" s="3"/>
+      <c r="F192" s="3">
+        <v>1111</v>
+      </c>
+      <c r="G192" s="3">
+        <v>0</v>
+      </c>
+      <c r="H192" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" s="3"/>
+      <c r="B193" s="3"/>
+      <c r="C193" s="3"/>
+      <c r="F193" s="3">
+        <v>1112</v>
+      </c>
+      <c r="G193" s="3">
+        <v>0</v>
+      </c>
+      <c r="H193" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" s="3"/>
+      <c r="B194" s="3"/>
+      <c r="C194" s="3"/>
+      <c r="F194" s="3">
+        <v>1124</v>
+      </c>
+      <c r="G194" s="3">
+        <v>2</v>
+      </c>
+      <c r="H194" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A195" s="3"/>
+      <c r="B195" s="3"/>
+      <c r="C195" s="3"/>
+      <c r="F195" s="3">
+        <v>1126</v>
+      </c>
+      <c r="G195" s="3">
+        <v>0</v>
+      </c>
+      <c r="H195" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A196" s="3"/>
+      <c r="B196" s="3"/>
+      <c r="C196" s="3"/>
+      <c r="F196" s="3">
+        <v>1134</v>
+      </c>
+      <c r="G196" s="3">
+        <v>2</v>
+      </c>
+      <c r="H196" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A197" s="3"/>
+      <c r="B197" s="3"/>
+      <c r="C197" s="3"/>
+      <c r="F197" s="3">
+        <v>1135</v>
+      </c>
+      <c r="G197" s="3">
+        <v>2</v>
+      </c>
+      <c r="H197" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" s="3"/>
+      <c r="B198" s="3"/>
+      <c r="C198" s="3"/>
+      <c r="F198" s="3">
+        <v>1147</v>
+      </c>
+      <c r="G198" s="3">
+        <v>0</v>
+      </c>
+      <c r="H198" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" s="3"/>
+      <c r="B199" s="3"/>
+      <c r="C199" s="3"/>
+      <c r="F199" s="3">
+        <v>1155</v>
+      </c>
+      <c r="G199" s="3">
+        <v>0</v>
+      </c>
+      <c r="H199" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A200" s="3"/>
+      <c r="B200" s="3"/>
+      <c r="C200" s="3"/>
+      <c r="F200" s="3">
+        <v>1162</v>
+      </c>
+      <c r="G200" s="3">
+        <v>1</v>
+      </c>
+      <c r="H200" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" s="3"/>
+      <c r="B201" s="3"/>
+      <c r="C201" s="3"/>
+      <c r="F201" s="3">
+        <v>1164</v>
+      </c>
+      <c r="G201" s="3">
+        <v>6</v>
+      </c>
+      <c r="H201" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="3"/>
+      <c r="B202" s="3"/>
+      <c r="C202" s="3"/>
+      <c r="F202" s="3">
+        <v>1165</v>
+      </c>
+      <c r="G202" s="3">
+        <v>0</v>
+      </c>
+      <c r="H202" s="3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" s="3"/>
+      <c r="B203" s="3"/>
+      <c r="C203" s="3"/>
+      <c r="F203" s="3">
+        <v>1166</v>
+      </c>
+      <c r="G203" s="3">
+        <v>2</v>
+      </c>
+      <c r="H203" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" s="3"/>
+      <c r="B204" s="3"/>
+      <c r="C204" s="3"/>
+      <c r="F204" s="3">
+        <v>1171</v>
+      </c>
+      <c r="G204" s="3">
+        <v>0</v>
+      </c>
+      <c r="H204" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="3"/>
+      <c r="B205" s="3"/>
+      <c r="C205" s="3"/>
+      <c r="F205" s="3">
+        <v>1177</v>
+      </c>
+      <c r="G205" s="3">
+        <v>3</v>
+      </c>
+      <c r="H205" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" s="3"/>
+      <c r="B206" s="3"/>
+      <c r="C206" s="3"/>
+      <c r="F206" s="3">
+        <v>1180</v>
+      </c>
+      <c r="G206" s="3">
+        <v>3</v>
+      </c>
+      <c r="H206" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" s="3"/>
+      <c r="B207" s="3"/>
+      <c r="C207" s="3"/>
+      <c r="F207" s="3">
+        <v>1184</v>
+      </c>
+      <c r="G207" s="3">
+        <v>0</v>
+      </c>
+      <c r="H207" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" s="3"/>
+      <c r="B208" s="3"/>
+      <c r="C208" s="3"/>
+      <c r="F208" s="3">
+        <v>1189</v>
+      </c>
+      <c r="G208" s="3">
+        <v>0</v>
+      </c>
+      <c r="H208" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" s="3"/>
+      <c r="B209" s="3"/>
+      <c r="C209" s="3"/>
+      <c r="F209" s="3">
+        <v>1191</v>
+      </c>
+      <c r="G209" s="3">
+        <v>0</v>
+      </c>
+      <c r="H209" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" s="3"/>
+      <c r="B210" s="3"/>
+      <c r="C210" s="3"/>
+      <c r="F210" s="3">
+        <v>1193</v>
+      </c>
+      <c r="G210" s="3">
+        <v>0</v>
+      </c>
+      <c r="H210" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A211" s="3"/>
+      <c r="B211" s="3"/>
+      <c r="C211" s="3"/>
+      <c r="F211" s="3">
+        <v>1194</v>
+      </c>
+      <c r="G211" s="3">
+        <v>0</v>
+      </c>
+      <c r="H211" s="3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" s="3"/>
+      <c r="B212" s="3"/>
+      <c r="C212" s="3"/>
+      <c r="F212" s="3">
+        <v>1209</v>
+      </c>
+      <c r="G212" s="3">
+        <v>1</v>
+      </c>
+      <c r="H212" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" s="3"/>
+      <c r="B213" s="3"/>
+      <c r="C213" s="3"/>
+      <c r="F213" s="3">
+        <v>1214</v>
+      </c>
+      <c r="G213" s="3">
+        <v>2</v>
+      </c>
+      <c r="H213" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" s="3"/>
+      <c r="B214" s="3"/>
+      <c r="C214" s="3"/>
+      <c r="F214" s="3">
+        <v>1226</v>
+      </c>
+      <c r="G214" s="3">
+        <v>0</v>
+      </c>
+      <c r="H214" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" s="3"/>
+      <c r="B215" s="3"/>
+      <c r="C215" s="3"/>
+      <c r="F215" s="3">
+        <v>1237</v>
+      </c>
+      <c r="G215" s="3">
+        <v>0</v>
+      </c>
+      <c r="H215" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" s="3"/>
+      <c r="B216" s="3"/>
+      <c r="C216" s="3"/>
+      <c r="F216" s="3">
+        <v>1243</v>
+      </c>
+      <c r="G216" s="3">
+        <v>0</v>
+      </c>
+      <c r="H216" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" s="3"/>
+      <c r="B217" s="3"/>
+      <c r="C217" s="3"/>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218" s="3"/>
+      <c r="B218" s="3"/>
+      <c r="C218" s="3"/>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A219" s="3"/>
+      <c r="B219" s="3"/>
+      <c r="C219" s="3"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A220" s="3"/>
+      <c r="B220" s="3"/>
+      <c r="C220" s="3"/>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A221" s="3"/>
+      <c r="B221" s="3"/>
+      <c r="C221" s="3"/>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A222" s="3"/>
+      <c r="B222" s="3"/>
+      <c r="C222" s="3"/>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A223" s="3"/>
+      <c r="B223" s="3"/>
+      <c r="C223" s="3"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A224" s="3"/>
+      <c r="B224" s="3"/>
+      <c r="C224" s="3"/>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="3"/>
+      <c r="B225" s="3"/>
+      <c r="C225" s="3"/>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="3"/>
+      <c r="B226" s="3"/>
+      <c r="C226" s="3"/>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="3"/>
+      <c r="B227" s="3"/>
+      <c r="C227" s="3"/>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="3"/>
+      <c r="B228" s="3"/>
+      <c r="C228" s="3"/>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="3"/>
+      <c r="B229" s="3"/>
+      <c r="C229" s="3"/>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="3"/>
+      <c r="B230" s="3"/>
+      <c r="C230" s="3"/>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="3"/>
+      <c r="B231" s="3"/>
+      <c r="C231" s="3"/>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="3"/>
+      <c r="B232" s="3"/>
+      <c r="C232" s="3"/>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="3"/>
+      <c r="B233" s="3"/>
+      <c r="C233" s="3"/>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="3"/>
+      <c r="B234" s="3"/>
+      <c r="C234" s="3"/>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="3"/>
+      <c r="B235" s="3"/>
+      <c r="C235" s="3"/>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="3"/>
+      <c r="B236" s="3"/>
+      <c r="C236" s="3"/>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="3"/>
+      <c r="B237" s="3"/>
+      <c r="C237" s="3"/>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="3"/>
+      <c r="B238" s="3"/>
+      <c r="C238" s="3"/>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="3"/>
+      <c r="B239" s="3"/>
+      <c r="C239" s="3"/>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="3"/>
+      <c r="B240" s="3"/>
+      <c r="C240" s="3"/>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="3"/>
+      <c r="B241" s="3"/>
+      <c r="C241" s="3"/>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="3"/>
+      <c r="B242" s="3"/>
+      <c r="C242" s="3"/>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="3"/>
+      <c r="B243" s="3"/>
+      <c r="C243" s="3"/>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="3"/>
+      <c r="B244" s="3"/>
+      <c r="C244" s="3"/>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="3"/>
+      <c r="B245" s="3"/>
+      <c r="C245" s="3"/>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="3"/>
+      <c r="B246" s="3"/>
+      <c r="C246" s="3"/>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="3"/>
+      <c r="B247" s="3"/>
+      <c r="C247" s="3"/>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="3"/>
+      <c r="B248" s="3"/>
+      <c r="C248" s="3"/>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="3"/>
+      <c r="B249" s="3"/>
+      <c r="C249" s="3"/>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="3"/>
+      <c r="B250" s="3"/>
+      <c r="C250" s="3"/>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="3"/>
+      <c r="B251" s="3"/>
+      <c r="C251" s="3"/>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="3"/>
+      <c r="B252" s="3"/>
+      <c r="C252" s="3"/>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="3"/>
+      <c r="B253" s="3"/>
+      <c r="C253" s="3"/>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="3"/>
+      <c r="B254" s="3"/>
+      <c r="C254" s="3"/>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="3"/>
+      <c r="B255" s="3"/>
+      <c r="C255" s="3"/>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="3"/>
+      <c r="B256" s="3"/>
+      <c r="C256" s="3"/>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="3"/>
+      <c r="B257" s="3"/>
+      <c r="C257" s="3"/>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="3"/>
+      <c r="B258" s="3"/>
+      <c r="C258" s="3"/>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="3"/>
+      <c r="B259" s="3"/>
+      <c r="C259" s="3"/>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="3"/>
+      <c r="B260" s="3"/>
+      <c r="C260" s="3"/>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="3"/>
+      <c r="B261" s="3"/>
+      <c r="C261" s="3"/>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="3"/>
+      <c r="B262" s="3"/>
+      <c r="C262" s="3"/>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="3"/>
+      <c r="B263" s="3"/>
+      <c r="C263" s="3"/>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="3"/>
+      <c r="B264" s="3"/>
+      <c r="C264" s="3"/>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="3"/>
+      <c r="B265" s="3"/>
+      <c r="C265" s="3"/>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="3"/>
+      <c r="B266" s="3"/>
+      <c r="C266" s="3"/>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="3"/>
+      <c r="B267" s="3"/>
+      <c r="C267" s="3"/>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="3"/>
+      <c r="B268" s="3"/>
+      <c r="C268" s="3"/>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="3"/>
+      <c r="B269" s="3"/>
+      <c r="C269" s="3"/>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="3"/>
+      <c r="B270" s="3"/>
+      <c r="C270" s="3"/>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="3"/>
+      <c r="B271" s="3"/>
+      <c r="C271" s="3"/>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="3"/>
+      <c r="B272" s="3"/>
+      <c r="C272" s="3"/>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="3"/>
+      <c r="B273" s="3"/>
+      <c r="C273" s="3"/>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="3"/>
+      <c r="B274" s="3"/>
+      <c r="C274" s="3"/>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="3"/>
+      <c r="B275" s="3"/>
+      <c r="C275" s="3"/>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="3"/>
+      <c r="B276" s="3"/>
+      <c r="C276" s="3"/>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="3"/>
+      <c r="B277" s="3"/>
+      <c r="C277" s="3"/>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="3"/>
+      <c r="B278" s="3"/>
+      <c r="C278" s="3"/>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="3"/>
+      <c r="B279" s="3"/>
+      <c r="C279" s="3"/>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="3"/>
+      <c r="B280" s="3"/>
+      <c r="C280" s="3"/>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="3"/>
+      <c r="B281" s="3"/>
+      <c r="C281" s="3"/>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="3"/>
+      <c r="B282" s="3"/>
+      <c r="C282" s="3"/>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="3"/>
+      <c r="B283" s="3"/>
+      <c r="C283" s="3"/>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="3"/>
+      <c r="B284" s="3"/>
+      <c r="C284" s="3"/>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="3"/>
+      <c r="B285" s="3"/>
+      <c r="C285" s="3"/>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="3"/>
+      <c r="B286" s="3"/>
+      <c r="C286" s="3"/>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="3"/>
+      <c r="B287" s="3"/>
+      <c r="C287" s="3"/>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="3"/>
+      <c r="B288" s="3"/>
+      <c r="C288" s="3"/>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="3"/>
+      <c r="B289" s="3"/>
+      <c r="C289" s="3"/>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="3"/>
+      <c r="B290" s="3"/>
+      <c r="C290" s="3"/>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="3"/>
+      <c r="B291" s="3"/>
+      <c r="C291" s="3"/>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="3"/>
+      <c r="B292" s="3"/>
+      <c r="C292" s="3"/>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="3"/>
+      <c r="B293" s="3"/>
+      <c r="C293" s="3"/>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="3"/>
+      <c r="B294" s="3"/>
+      <c r="C294" s="3"/>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="3"/>
+      <c r="B295" s="3"/>
+      <c r="C295" s="3"/>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="3"/>
+      <c r="B296" s="3"/>
+      <c r="C296" s="3"/>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="3"/>
+      <c r="B297" s="3"/>
+      <c r="C297" s="3"/>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="3"/>
+      <c r="B298" s="3"/>
+      <c r="C298" s="3"/>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="3"/>
+      <c r="B299" s="3"/>
+      <c r="C299" s="3"/>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="3"/>
+      <c r="B300" s="3"/>
+      <c r="C300" s="3"/>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="3"/>
+      <c r="B301" s="3"/>
+      <c r="C301" s="3"/>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="3"/>
+      <c r="B302" s="3"/>
+      <c r="C302" s="3"/>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="3"/>
+      <c r="B303" s="3"/>
+      <c r="C303" s="3"/>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="3"/>
+      <c r="B304" s="3"/>
+      <c r="C304" s="3"/>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="3"/>
+      <c r="B305" s="3"/>
+      <c r="C305" s="3"/>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="3"/>
+      <c r="B306" s="3"/>
+      <c r="C306" s="3"/>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="3"/>
+      <c r="B307" s="3"/>
+      <c r="C307" s="3"/>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="3"/>
+      <c r="B308" s="3"/>
+      <c r="C308" s="3"/>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="3"/>
+      <c r="B309" s="3"/>
+      <c r="C309" s="3"/>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="3"/>
+      <c r="B310" s="3"/>
+      <c r="C310" s="3"/>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="3"/>
+      <c r="B311" s="3"/>
+      <c r="C311" s="3"/>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="3"/>
+      <c r="B312" s="3"/>
+      <c r="C312" s="3"/>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="3"/>
+      <c r="B313" s="3"/>
+      <c r="C313" s="3"/>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="3"/>
+      <c r="B314" s="3"/>
+      <c r="C314" s="3"/>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="3"/>
+      <c r="B315" s="3"/>
+      <c r="C315" s="3"/>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="3"/>
+      <c r="B316" s="3"/>
+      <c r="C316" s="3"/>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="3"/>
+      <c r="B317" s="3"/>
+      <c r="C317" s="3"/>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="3"/>
+      <c r="B318" s="3"/>
+      <c r="C318" s="3"/>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="3"/>
+      <c r="B319" s="3"/>
+      <c r="C319" s="3"/>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="3"/>
+      <c r="B320" s="3"/>
+      <c r="C320" s="3"/>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="3"/>
+      <c r="B321" s="3"/>
+      <c r="C321" s="3"/>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="3"/>
+      <c r="B322" s="3"/>
+      <c r="C322" s="3"/>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="3"/>
+      <c r="B323" s="3"/>
+      <c r="C323" s="3"/>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="3"/>
+      <c r="B324" s="3"/>
+      <c r="C324" s="3"/>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="3"/>
+      <c r="B325" s="3"/>
+      <c r="C325" s="3"/>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="3"/>
+      <c r="B326" s="3"/>
+      <c r="C326" s="3"/>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="3"/>
+      <c r="B327" s="3"/>
+      <c r="C327" s="3"/>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="3"/>
+      <c r="B328" s="3"/>
+      <c r="C328" s="3"/>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="3"/>
+      <c r="B329" s="3"/>
+      <c r="C329" s="3"/>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="3"/>
+      <c r="B330" s="3"/>
+      <c r="C330" s="3"/>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="3"/>
+      <c r="B331" s="3"/>
+      <c r="C331" s="3"/>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="3"/>
+      <c r="B332" s="3"/>
+      <c r="C332" s="3"/>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="3"/>
+      <c r="B333" s="3"/>
+      <c r="C333" s="3"/>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="3"/>
+      <c r="B334" s="3"/>
+      <c r="C334" s="3"/>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="3"/>
+      <c r="B335" s="3"/>
+      <c r="C335" s="3"/>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="3"/>
+      <c r="B336" s="3"/>
+      <c r="C336" s="3"/>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="3"/>
+      <c r="B337" s="3"/>
+      <c r="C337" s="3"/>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="3"/>
+      <c r="B338" s="3"/>
+      <c r="C338" s="3"/>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="3"/>
+      <c r="B339" s="3"/>
+      <c r="C339" s="3"/>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="3"/>
+      <c r="B340" s="3"/>
+      <c r="C340" s="3"/>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="3"/>
+      <c r="B341" s="3"/>
+      <c r="C341" s="3"/>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="3"/>
+      <c r="B342" s="3"/>
+      <c r="C342" s="3"/>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="3"/>
+      <c r="B343" s="3"/>
+      <c r="C343" s="3"/>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="3"/>
+      <c r="B344" s="3"/>
+      <c r="C344" s="3"/>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="3"/>
+      <c r="B345" s="3"/>
+      <c r="C345" s="3"/>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="3"/>
+      <c r="B346" s="3"/>
+      <c r="C346" s="3"/>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="3"/>
+      <c r="B347" s="3"/>
+      <c r="C347" s="3"/>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="3"/>
+      <c r="B348" s="3"/>
+      <c r="C348" s="3"/>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="3"/>
+      <c r="B349" s="3"/>
+      <c r="C349" s="3"/>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="3"/>
+      <c r="B350" s="3"/>
+      <c r="C350" s="3"/>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="3"/>
+      <c r="B351" s="3"/>
+      <c r="C351" s="3"/>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="3"/>
+      <c r="B352" s="3"/>
+      <c r="C352" s="3"/>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="3"/>
+      <c r="B353" s="3"/>
+      <c r="C353" s="3"/>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="3"/>
+      <c r="B354" s="3"/>
+      <c r="C354" s="3"/>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="3"/>
+      <c r="B355" s="3"/>
+      <c r="C355" s="3"/>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="3"/>
+      <c r="B356" s="3"/>
+      <c r="C356" s="3"/>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="3"/>
+      <c r="B357" s="3"/>
+      <c r="C357" s="3"/>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="3"/>
+      <c r="B358" s="3"/>
+      <c r="C358" s="3"/>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="3"/>
+      <c r="B359" s="3"/>
+      <c r="C359" s="3"/>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="3"/>
+      <c r="B360" s="3"/>
+      <c r="C360" s="3"/>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="3"/>
+      <c r="B361" s="3"/>
+      <c r="C361" s="3"/>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="3"/>
+      <c r="B362" s="3"/>
+      <c r="C362" s="3"/>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="3"/>
+      <c r="B363" s="3"/>
+      <c r="C363" s="3"/>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="3"/>
+      <c r="B364" s="3"/>
+      <c r="C364" s="3"/>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="3"/>
+      <c r="B365" s="3"/>
+      <c r="C365" s="3"/>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="3"/>
+      <c r="B366" s="3"/>
+      <c r="C366" s="3"/>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="3"/>
+      <c r="B367" s="3"/>
+      <c r="C367" s="3"/>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="3"/>
+      <c r="B368" s="3"/>
+      <c r="C368" s="3"/>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="3"/>
+      <c r="B369" s="3"/>
+      <c r="C369" s="3"/>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="3"/>
+      <c r="B370" s="3"/>
+      <c r="C370" s="3"/>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="3"/>
+      <c r="B371" s="3"/>
+      <c r="C371" s="3"/>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="3"/>
+      <c r="B372" s="3"/>
+      <c r="C372" s="3"/>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="3"/>
+      <c r="B373" s="3"/>
+      <c r="C373" s="3"/>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="3"/>
+      <c r="B374" s="3"/>
+      <c r="C374" s="3"/>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="3"/>
+      <c r="B375" s="3"/>
+      <c r="C375" s="3"/>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="3"/>
+      <c r="B376" s="3"/>
+      <c r="C376" s="3"/>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="3"/>
+      <c r="B377" s="3"/>
+      <c r="C377" s="3"/>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="3"/>
+      <c r="B378" s="3"/>
+      <c r="C378" s="3"/>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="3"/>
+      <c r="B379" s="3"/>
+      <c r="C379" s="3"/>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="3"/>
+      <c r="B380" s="3"/>
+      <c r="C380" s="3"/>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="3"/>
+      <c r="B381" s="3"/>
+      <c r="C381" s="3"/>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="3"/>
+      <c r="B382" s="3"/>
+      <c r="C382" s="3"/>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="3"/>
+      <c r="B383" s="3"/>
+      <c r="C383" s="3"/>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="3"/>
+      <c r="B384" s="3"/>
+      <c r="C384" s="3"/>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="3"/>
+      <c r="B385" s="3"/>
+      <c r="C385" s="3"/>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="3"/>
+      <c r="B386" s="3"/>
+      <c r="C386" s="3"/>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="3"/>
+      <c r="B387" s="3"/>
+      <c r="C387" s="3"/>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="3"/>
+      <c r="B388" s="3"/>
+      <c r="C388" s="3"/>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="3"/>
+      <c r="B389" s="3"/>
+      <c r="C389" s="3"/>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="3"/>
+      <c r="B390" s="3"/>
+      <c r="C390" s="3"/>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="3"/>
+      <c r="B391" s="3"/>
+      <c r="C391" s="3"/>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="3"/>
+      <c r="B392" s="3"/>
+      <c r="C392" s="3"/>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="3"/>
+      <c r="B393" s="3"/>
+      <c r="C393" s="3"/>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="3"/>
+      <c r="B394" s="3"/>
+      <c r="C394" s="3"/>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="3"/>
+      <c r="B395" s="3"/>
+      <c r="C395" s="3"/>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="3"/>
+      <c r="B396" s="3"/>
+      <c r="C396" s="3"/>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="3"/>
+      <c r="B397" s="3"/>
+      <c r="C397" s="3"/>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="3"/>
+      <c r="B398" s="3"/>
+      <c r="C398" s="3"/>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="3"/>
+      <c r="B399" s="3"/>
+      <c r="C399" s="3"/>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="3"/>
+      <c r="B400" s="3"/>
+      <c r="C400" s="3"/>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="3"/>
+      <c r="B401" s="3"/>
+      <c r="C401" s="3"/>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="3"/>
+      <c r="B402" s="3"/>
+      <c r="C402" s="3"/>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="3"/>
+      <c r="B403" s="3"/>
+      <c r="C403" s="3"/>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="3"/>
+      <c r="B404" s="3"/>
+      <c r="C404" s="3"/>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="3"/>
+      <c r="B405" s="3"/>
+      <c r="C405" s="3"/>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="3"/>
+      <c r="B406" s="3"/>
+      <c r="C406" s="3"/>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="3"/>
+      <c r="B407" s="3"/>
+      <c r="C407" s="3"/>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="3"/>
+      <c r="B408" s="3"/>
+      <c r="C408" s="3"/>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="3"/>
+      <c r="B409" s="3"/>
+      <c r="C409" s="3"/>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="3"/>
+      <c r="B410" s="3"/>
+      <c r="C410" s="3"/>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="3"/>
+      <c r="B411" s="3"/>
+      <c r="C411" s="3"/>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="3"/>
+      <c r="B412" s="3"/>
+      <c r="C412" s="3"/>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="3"/>
+      <c r="B413" s="3"/>
+      <c r="C413" s="3"/>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="3"/>
+      <c r="B414" s="3"/>
+      <c r="C414" s="3"/>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="3"/>
+      <c r="B415" s="3"/>
+      <c r="C415" s="3"/>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="3"/>
+      <c r="B416" s="3"/>
+      <c r="C416" s="3"/>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" s="3"/>
+      <c r="B417" s="3"/>
+      <c r="C417" s="3"/>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" s="3"/>
+      <c r="B418" s="3"/>
+      <c r="C418" s="3"/>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" s="3"/>
+      <c r="B419" s="3"/>
+      <c r="C419" s="3"/>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" s="3"/>
+      <c r="B420" s="3"/>
+      <c r="C420" s="3"/>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" s="3"/>
+      <c r="B421" s="3"/>
+      <c r="C421" s="3"/>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" s="3"/>
+      <c r="B422" s="3"/>
+      <c r="C422" s="3"/>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" s="3"/>
+      <c r="B423" s="3"/>
+      <c r="C423" s="3"/>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" s="3"/>
+      <c r="B424" s="3"/>
+      <c r="C424" s="3"/>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" s="3"/>
+      <c r="B425" s="3"/>
+      <c r="C425" s="3"/>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" s="3"/>
+      <c r="B426" s="3"/>
+      <c r="C426" s="3"/>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" s="3"/>
+      <c r="B427" s="3"/>
+      <c r="C427" s="3"/>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" s="3"/>
+      <c r="B428" s="3"/>
+      <c r="C428" s="3"/>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" s="3"/>
+      <c r="B429" s="3"/>
+      <c r="C429" s="3"/>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" s="3"/>
+      <c r="B430" s="3"/>
+      <c r="C430" s="3"/>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" s="3"/>
+      <c r="B431" s="3"/>
+      <c r="C431" s="3"/>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" s="3"/>
+      <c r="B432" s="3"/>
+      <c r="C432" s="3"/>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" s="3"/>
+      <c r="B433" s="3"/>
+      <c r="C433" s="3"/>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" s="3"/>
+      <c r="B434" s="3"/>
+      <c r="C434" s="3"/>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" s="3"/>
+      <c r="B435" s="3"/>
+      <c r="C435" s="3"/>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" s="3"/>
+      <c r="B436" s="3"/>
+      <c r="C436" s="3"/>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" s="3"/>
+      <c r="B437" s="3"/>
+      <c r="C437" s="3"/>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" s="3"/>
+      <c r="B438" s="3"/>
+      <c r="C438" s="3"/>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" s="3"/>
+      <c r="B439" s="3"/>
+      <c r="C439" s="3"/>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A440" s="3"/>
+      <c r="B440" s="3"/>
+      <c r="C440" s="3"/>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" s="3"/>
+      <c r="B441" s="3"/>
+      <c r="C441" s="3"/>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" s="3"/>
+      <c r="B442" s="3"/>
+      <c r="C442" s="3"/>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" s="3"/>
+      <c r="B443" s="3"/>
+      <c r="C443" s="3"/>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" s="3"/>
+      <c r="B444" s="3"/>
+      <c r="C444" s="3"/>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" s="3"/>
+      <c r="B445" s="3"/>
+      <c r="C445" s="3"/>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" s="3"/>
+      <c r="B446" s="3"/>
+      <c r="C446" s="3"/>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" s="3"/>
+      <c r="B447" s="3"/>
+      <c r="C447" s="3"/>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" s="3"/>
+      <c r="B448" s="3"/>
+      <c r="C448" s="3"/>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="3"/>
+      <c r="B449" s="3"/>
+      <c r="C449" s="3"/>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="3"/>
+      <c r="B450" s="3"/>
+      <c r="C450" s="3"/>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="3"/>
+      <c r="B451" s="3"/>
+      <c r="C451" s="3"/>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="3"/>
+      <c r="B452" s="3"/>
+      <c r="C452" s="3"/>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="3"/>
+      <c r="B453" s="3"/>
+      <c r="C453" s="3"/>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" s="3"/>
+      <c r="B454" s="3"/>
+      <c r="C454" s="3"/>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" s="3"/>
+      <c r="B455" s="3"/>
+      <c r="C455" s="3"/>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" s="3"/>
+      <c r="B456" s="3"/>
+      <c r="C456" s="3"/>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" s="3"/>
+      <c r="B457" s="3"/>
+      <c r="C457" s="3"/>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" s="3"/>
+      <c r="B458" s="3"/>
+      <c r="C458" s="3"/>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" s="3"/>
+      <c r="B459" s="3"/>
+      <c r="C459" s="3"/>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" s="3"/>
+      <c r="B460" s="3"/>
+      <c r="C460" s="3"/>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" s="3"/>
+      <c r="B461" s="3"/>
+      <c r="C461" s="3"/>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" s="3"/>
+      <c r="B462" s="3"/>
+      <c r="C462" s="3"/>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" s="3"/>
+      <c r="B463" s="3"/>
+      <c r="C463" s="3"/>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" s="3"/>
+      <c r="B464" s="3"/>
+      <c r="C464" s="3"/>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" s="3"/>
+      <c r="B465" s="3"/>
+      <c r="C465" s="3"/>
+    </row>
+  </sheetData>
+  <sortState ref="D1:D22">
+    <sortCondition ref="D1"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N18"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="6.5703125" customWidth="1"/>
+    <col min="3" max="4" width="9.140625" customWidth="1"/>
+    <col min="5" max="7" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" customWidth="1"/>
+    <col min="10" max="10" width="13" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" style="7" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="15" max="15" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -5703,704 +9739,790 @@
         <v>110</v>
       </c>
       <c r="I1" t="s">
-        <v>123</v>
+        <v>164</v>
       </c>
       <c r="J1" t="s">
-        <v>124</v>
-      </c>
-      <c r="M1" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K1" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="7">
         <v>0.94617490658579595</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="7">
         <v>0.95038783436226604</v>
       </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="7">
         <v>0.898146416678407</v>
       </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
+      <c r="G2" s="7">
+        <v>0</v>
+      </c>
+      <c r="H2" s="7">
         <f>D2-C2</f>
         <v>4.2129277764700879E-3</v>
       </c>
       <c r="I2" s="3">
-        <v>0.96356802957863197</v>
-      </c>
-      <c r="J2" s="1">
-        <f>I2-MAX(D2,C2)</f>
-        <v>1.3180195216365931E-2</v>
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0.96399999999999997</v>
       </c>
       <c r="L2" s="3">
-        <v>0.96356802957863197</v>
-      </c>
-      <c r="M2" s="4">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="O2" s="3">
         <v>0.35</v>
       </c>
-      <c r="N2" s="4">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="7">
         <v>0.584284269765035</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="7">
         <v>0.59808003351412298</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="7">
         <v>0.53251455653478497</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="7">
         <v>0.53911745715053405</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="7">
         <v>0.54041048353047305</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="7">
         <f t="shared" ref="H3:H17" si="0">D3-C3</f>
         <v>1.3795763749087975E-2</v>
       </c>
       <c r="I3" s="3">
-        <v>0.59325744725960805</v>
-      </c>
-      <c r="J3">
-        <f t="shared" ref="J3:K17" si="1">I3-MAX(D3,C3)</f>
-        <v>-4.8225862545149267E-3</v>
+        <v>0.45500000000000002</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0.59099999999999997</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0.59099999999999997</v>
       </c>
       <c r="L3" s="3">
-        <v>0.59325744725960805</v>
-      </c>
-      <c r="M3" s="4">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="O3" s="3">
         <v>0.03</v>
       </c>
-      <c r="N3" s="4">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="7">
         <v>0.90732957198119901</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="7">
         <v>0.8905919498889</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="7">
         <v>0.58620854822053703</v>
       </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
         <f t="shared" si="0"/>
         <v>-1.6737622092299009E-2</v>
       </c>
       <c r="I4" s="3">
-        <v>0.91739512981606197</v>
-      </c>
-      <c r="J4" s="7">
-        <f t="shared" si="1"/>
-        <v>1.0065557834862959E-2</v>
+        <v>0.84</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0.92</v>
       </c>
       <c r="L4" s="3">
-        <v>0.91739512981606197</v>
+        <v>0.66300000000000003</v>
       </c>
       <c r="M4" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="N4" s="3">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="P4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
       <c r="B5">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="7">
         <v>0.94125971866870395</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="7">
         <v>0.93570261794715603</v>
       </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
         <v>0.93442211978499901</v>
       </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
         <f t="shared" si="0"/>
         <v>-5.557100721547914E-3</v>
       </c>
       <c r="I5" s="3">
-        <v>0.91524203687775096</v>
-      </c>
-      <c r="J5" s="1">
-        <f t="shared" si="1"/>
-        <v>-2.6017681790952984E-2</v>
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.91900000000000004</v>
       </c>
       <c r="L5" s="3">
-        <v>0.91524203687775096</v>
-      </c>
-      <c r="M5" s="4">
-        <v>0.35</v>
-      </c>
-      <c r="N5" s="4">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="P5" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
       <c r="B6">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="7">
         <v>0.60213837196612696</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="7">
         <v>0.571452077468104</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="7">
         <v>0.48756923764334598</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="7">
         <v>0.51533857207082401</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="7">
         <v>0.51409451706172704</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="7">
         <f t="shared" si="0"/>
         <v>-3.0686294498022959E-2</v>
       </c>
       <c r="I6" s="3">
-        <v>0.59426119023281399</v>
-      </c>
-      <c r="J6">
-        <f t="shared" si="1"/>
-        <v>-7.8771817333129768E-3</v>
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.57799999999999996</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0.57799999999999996</v>
       </c>
       <c r="L6" s="3">
-        <v>0.59426119023281399</v>
-      </c>
-      <c r="M6" s="4">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0.50900000000000001</v>
+      </c>
+      <c r="O6" s="3">
         <v>0.03</v>
       </c>
-      <c r="N6" s="4">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
       <c r="B7">
         <v>6</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="7">
         <v>0.89079754041494097</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="7">
         <v>0.89595436135713802</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="7">
         <v>0.871449910772646</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="7">
         <v>0.89081987756710002</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="7">
         <v>0.86722614606655701</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="7">
         <f t="shared" si="0"/>
         <v>5.156820942197049E-3</v>
       </c>
       <c r="I7" s="3">
-        <v>0.93796706381106099</v>
-      </c>
-      <c r="J7" s="1">
-        <f t="shared" si="1"/>
-        <v>4.2012702453922968E-2</v>
+        <v>0.93799999999999994</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.93200000000000005</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0.93200000000000005</v>
       </c>
       <c r="L7" s="3">
-        <v>0.93796706381106099</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="M7" s="3">
-        <v>0.3</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.46899999999999997</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="P7" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
       <c r="B8">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="7">
         <v>0.883813621203003</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="7">
         <v>0.86370646635315595</v>
       </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
+      <c r="E8" s="7">
+        <v>0</v>
+      </c>
+      <c r="F8" s="7">
         <v>0.49699948202414601</v>
       </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
         <f t="shared" si="0"/>
         <v>-2.0107154849847042E-2</v>
       </c>
       <c r="I8" s="3">
-        <v>0.88757772237187305</v>
-      </c>
-      <c r="J8">
-        <f t="shared" si="1"/>
-        <v>3.7641011688700488E-3</v>
+        <v>0.748</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.88700000000000001</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0.88700000000000001</v>
       </c>
       <c r="L8" s="3">
-        <v>0.88757772237187305</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="M8" s="3">
+        <v>0.88800000000000001</v>
+      </c>
+      <c r="O8" s="3">
         <v>0.15</v>
       </c>
-      <c r="N8" s="3">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P8" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="7">
         <v>0.65281965139387199</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="7">
         <v>0.63775621578207897</v>
       </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
+      <c r="E9" s="7">
+        <v>0</v>
+      </c>
+      <c r="F9" s="7">
         <v>0.62191950651099703</v>
       </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7">
         <f t="shared" si="0"/>
         <v>-1.5063435611793019E-2</v>
       </c>
       <c r="I9" s="3">
-        <v>0.63814624672216802</v>
-      </c>
-      <c r="J9" s="1">
-        <f t="shared" si="1"/>
-        <v>-1.4673404671703971E-2</v>
+        <v>0.63800000000000001</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0.63400000000000001</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0.63600000000000001</v>
       </c>
       <c r="L9" s="3">
-        <v>0.63814624672216802</v>
-      </c>
-      <c r="M9" s="4">
-        <v>0.35</v>
-      </c>
-      <c r="N9" s="4">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="P9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
       <c r="B10">
         <v>9</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="7">
         <v>0.51841559871778597</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="7">
         <v>0.54921738607890502</v>
       </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
+      <c r="E10" s="7">
+        <v>0</v>
+      </c>
+      <c r="F10" s="7">
         <v>0.48486244609848</v>
       </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7">
         <f t="shared" si="0"/>
         <v>3.0801787361119048E-2</v>
       </c>
       <c r="I10" s="3">
-        <v>0.56329562518866705</v>
-      </c>
-      <c r="J10" s="1">
-        <f t="shared" si="1"/>
-        <v>1.4078239109762025E-2</v>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0.66400000000000003</v>
+      </c>
+      <c r="K10" s="3">
+        <v>0.66400000000000003</v>
       </c>
       <c r="L10" s="3">
-        <v>0.56329562518866705</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="M10" s="3">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="N10" s="3">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.48899999999999999</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="P10" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
       <c r="B11">
         <v>10</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="7">
         <v>0.76615402585558101</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="7">
         <v>0.78542502001772696</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="7">
         <v>0.52726585225165001</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="7">
         <v>0.57202108548168895</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="7">
         <v>0.63544378595325701</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="7">
         <f t="shared" si="0"/>
         <v>1.9270994162145949E-2</v>
       </c>
       <c r="I11" s="3">
-        <v>0.78618027427974302</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="1"/>
-        <v>7.552542620160585E-4</v>
+        <v>0.72299999999999998</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0.80700000000000005</v>
+      </c>
+      <c r="K11" s="3">
+        <v>0.81499999999999995</v>
       </c>
       <c r="L11" s="3">
-        <v>0.78618027427974302</v>
-      </c>
-      <c r="M11" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="N11" s="4">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="M11" s="3">
+        <v>0.59599999999999997</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="P11" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
       <c r="B12">
         <v>11</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="7">
         <v>0.873240310261861</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="7">
         <v>0.88418333952228301</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="7">
         <v>0.842189478247515</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="7">
         <v>0.78332222519350903</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="7">
         <v>0.88006922279788002</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="7">
         <f t="shared" si="0"/>
         <v>1.094302926042201E-2</v>
       </c>
-      <c r="I12" s="3">
-        <v>0.87901522279491495</v>
-      </c>
-      <c r="J12">
-        <f t="shared" si="1"/>
-        <v>-5.1681167273680551E-3</v>
+      <c r="I12" s="4">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="K12" s="3">
+        <v>0.83199999999999996</v>
       </c>
       <c r="L12" s="3">
-        <v>0.87901522279491495</v>
+        <v>0.83199999999999996</v>
       </c>
       <c r="M12" s="3">
+        <v>0.83199999999999996</v>
+      </c>
+      <c r="O12" s="3">
         <v>0.1</v>
       </c>
-      <c r="N12" s="3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P12" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
       <c r="B13">
         <v>12</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="7">
         <v>0.60240250537602102</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="7">
         <v>0.61316852053507198</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
+      <c r="E13" s="7">
+        <v>0</v>
+      </c>
+      <c r="F13" s="7">
         <v>0.55160570709517698</v>
       </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
         <f t="shared" si="0"/>
         <v>1.0766015159050957E-2</v>
       </c>
       <c r="I13" s="3">
-        <v>0.85188798503800101</v>
-      </c>
-      <c r="J13" s="1">
-        <f t="shared" si="1"/>
-        <v>0.23871946450292902</v>
+        <v>0.85199999999999998</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="K13" s="3">
+        <v>0.85099999999999998</v>
       </c>
       <c r="L13" s="3">
-        <v>0.85188798503800001</v>
+        <v>0.83299999999999996</v>
       </c>
       <c r="M13" s="3">
+        <v>0.83299999999999996</v>
+      </c>
+      <c r="O13" s="3">
         <v>0.25</v>
       </c>
-      <c r="N13" s="3">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
       <c r="B14">
         <v>13</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="7">
         <v>0.97042383924398701</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="7">
         <v>0.96917174457699695</v>
       </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
+      <c r="E14" s="7">
+        <v>0</v>
+      </c>
+      <c r="F14" s="7">
         <v>0.63501177050791902</v>
       </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7">
         <f t="shared" si="0"/>
         <v>-1.2520946669900557E-3</v>
       </c>
       <c r="I14" s="3">
-        <v>0.96791061413608104</v>
-      </c>
-      <c r="J14">
-        <f t="shared" si="1"/>
-        <v>-2.5132251079059698E-3</v>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0.97199999999999998</v>
+      </c>
+      <c r="K14" s="3">
+        <v>0.97299999999999998</v>
       </c>
       <c r="L14" s="3">
-        <v>0.96791061413608104</v>
-      </c>
-      <c r="M14" s="4">
-        <v>0.03</v>
-      </c>
-      <c r="N14" s="4">
-        <v>0.03</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0.77200000000000002</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="P14" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
       <c r="B15">
         <v>14</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="7">
         <v>0.64448303696585596</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="7">
         <v>0.64291386894301095</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="7">
         <v>0.63964110746875102</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="7">
         <v>0.62422954842253597</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="7">
         <v>0.62171146047717496</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="7">
         <f t="shared" si="0"/>
         <v>-1.5691680228450133E-3</v>
       </c>
       <c r="I15" s="3">
-        <v>0.64085157850621499</v>
-      </c>
-      <c r="J15">
-        <f t="shared" si="1"/>
-        <v>-3.6314584596409683E-3</v>
+        <v>0.61399999999999999</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="K15" s="3">
+        <v>0.65500000000000003</v>
       </c>
       <c r="L15" s="3">
-        <v>0.64085157850621499</v>
-      </c>
-      <c r="M15" s="4">
-        <v>0.35</v>
-      </c>
-      <c r="N15" s="4">
-        <v>0.35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="M15" s="3">
+        <v>0.63900000000000001</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="P15" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
       <c r="B16">
         <v>15</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="7">
         <v>0.88910994058597703</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="7">
         <v>0.92299437668031703</v>
       </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
         <v>0.59681340123896098</v>
       </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7">
         <f t="shared" si="0"/>
         <v>3.3884436094339998E-2</v>
       </c>
       <c r="I16" s="3">
-        <v>0.89838728303433202</v>
-      </c>
-      <c r="J16" s="1">
-        <f t="shared" si="1"/>
-        <v>-2.4607093645985012E-2</v>
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="K16" s="3">
+        <v>0.89900000000000002</v>
       </c>
       <c r="L16" s="3">
-        <v>0.89838728303433302</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="M16" s="3">
+        <v>0.84399999999999997</v>
+      </c>
+      <c r="O16" s="3">
         <v>0.25</v>
       </c>
-      <c r="N16" s="3">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P16" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
       <c r="B17">
         <v>16</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="7">
         <v>0.74208096520086897</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="7">
         <v>0.72482997008859396</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="7">
         <v>0.69168894212730503</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="7">
         <v>0.50644876434107</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="7">
         <v>0.60683383618254805</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="7">
         <f t="shared" si="0"/>
         <v>-1.7250995112275014E-2</v>
       </c>
       <c r="I17" s="3">
-        <v>0.73954636128220597</v>
-      </c>
-      <c r="J17">
-        <f t="shared" si="1"/>
-        <v>-2.5346039186630032E-3</v>
+        <v>0.73799999999999999</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0.73699999999999999</v>
+      </c>
+      <c r="K17" s="3">
+        <v>0.73699999999999999</v>
       </c>
       <c r="L17" s="3">
-        <v>0.73954636128220597</v>
+        <v>0.71699999999999997</v>
       </c>
       <c r="M17" s="3">
-        <v>0.1</v>
-      </c>
-      <c r="N17" s="3">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="P17" t="s">
+        <v>183</v>
+      </c>
+      <c r="S17" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="C18">
         <f>AVERAGE(C2:C17)</f>
         <v>0.77593299213666334</v>
@@ -6413,14 +10535,12 @@
         <f>SUM(H2:H17)</f>
         <v>2.0607908929213048E-2</v>
       </c>
-      <c r="J18">
-        <f>SUM(J2:J17)-J13</f>
-        <v>-7.9893022642478773E-3</v>
-      </c>
+      <c r="I18" s="8"/>
+      <c r="J18" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9574,7 +13694,7 @@
   <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:K8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9852,7 +13972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="A7" activeCellId="2" sqref="A2:XFD2 A4:XFD4 A7:XFD7"/>
     </sheetView>
   </sheetViews>

--- a/workspace/i2b2.2008/data/04-30-AmbertVsCui.xlsx
+++ b/workspace/i2b2.2008/data/04-30-AmbertVsCui.xlsx
@@ -19,13 +19,14 @@
     <sheet name="vecVsKern0.07" sheetId="12" r:id="rId10"/>
     <sheet name="gallstones-features" sheetId="13" r:id="rId11"/>
     <sheet name="Sheet3" sheetId="14" r:id="rId12"/>
+    <sheet name="Sheet4" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="187">
   <si>
     <t>label</t>
   </si>
@@ -531,54 +532,6 @@
     <t>kern-cuiword-lin</t>
   </si>
   <si>
-    <t>1, 0.964, 0.35, 0.35</t>
-  </si>
-  <si>
-    <t>2, 0.528, 0.03, 0.03</t>
-  </si>
-  <si>
-    <t>3, 0.663, 0.05, 0.05</t>
-  </si>
-  <si>
-    <t>4, 0.853, 0.2, 0.2</t>
-  </si>
-  <si>
-    <t>5, 0.509, 0.03, 0.03</t>
-  </si>
-  <si>
-    <t>6, 0.469, 0.09, 0.09</t>
-  </si>
-  <si>
-    <t>7, 0.888, 0.15, 0.15</t>
-  </si>
-  <si>
-    <t>8, 0.589, 0.3, 0.3</t>
-  </si>
-  <si>
-    <t>9, 0.489, 0.05, 0.05</t>
-  </si>
-  <si>
-    <t>10, 0.596, 0.05, 0.05</t>
-  </si>
-  <si>
-    <t>11, 0.832, 0.1, 0.1</t>
-  </si>
-  <si>
-    <t>12, 0.833, 0.25, 0.25</t>
-  </si>
-  <si>
-    <t>13, 0.772, 0.05, 0.05</t>
-  </si>
-  <si>
-    <t>14, 0.639, 0.15, 0.15</t>
-  </si>
-  <si>
-    <t>15, 0.844, 0.25, 0.25</t>
-  </si>
-  <si>
-    <t>16, 0.717, 0.09, 0.09</t>
-  </si>
-  <si>
     <t>[C0198500]</t>
   </si>
   <si>
@@ -622,6 +575,18 @@
   </si>
   <si>
     <t>docId</t>
+  </si>
+  <si>
+    <t>kern-cuiword-filteredlin</t>
+  </si>
+  <si>
+    <t>min filter</t>
+  </si>
+  <si>
+    <t>max filter</t>
+  </si>
+  <si>
+    <t>hzv cutoff</t>
   </si>
 </sst>
 </file>
@@ -1117,7 +1082,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1136,6 +1101,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1475,11 +1443,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="75766784"/>
-        <c:axId val="75776768"/>
+        <c:axId val="82381824"/>
+        <c:axId val="82391808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="75766784"/>
+        <c:axId val="82381824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1489,12 +1457,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75776768"/>
+        <c:crossAx val="82391808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="75776768"/>
+        <c:axId val="82391808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1507,7 +1475,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75766784"/>
+        <c:crossAx val="82381824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1694,11 +1662,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="85771008"/>
-        <c:axId val="85772544"/>
+        <c:axId val="83931904"/>
+        <c:axId val="83933440"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="85771008"/>
+        <c:axId val="83931904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1708,12 +1676,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85772544"/>
+        <c:crossAx val="83933440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="85772544"/>
+        <c:axId val="83933440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1726,7 +1694,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85771008"/>
+        <c:crossAx val="83931904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2069,11 +2037,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="85902464"/>
-        <c:axId val="85904000"/>
+        <c:axId val="84067456"/>
+        <c:axId val="84068992"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="85902464"/>
+        <c:axId val="84067456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2082,7 +2050,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85904000"/>
+        <c:crossAx val="84068992"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2090,7 +2058,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="85904000"/>
+        <c:axId val="84068992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2101,7 +2069,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="85902464"/>
+        <c:crossAx val="84067456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2410,11 +2378,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="84487552"/>
-        <c:axId val="84501632"/>
+        <c:axId val="83176832"/>
+        <c:axId val="83190912"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84487552"/>
+        <c:axId val="83176832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2423,7 +2391,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84501632"/>
+        <c:crossAx val="83190912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2431,7 +2399,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84501632"/>
+        <c:axId val="83190912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2443,14 +2411,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84487552"/>
+        <c:crossAx val="83176832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2882,11 +2849,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="84291584"/>
-        <c:axId val="84293120"/>
+        <c:axId val="82977152"/>
+        <c:axId val="82978688"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84291584"/>
+        <c:axId val="82977152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2895,7 +2862,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84293120"/>
+        <c:crossAx val="82978688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2903,7 +2870,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84293120"/>
+        <c:axId val="82978688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2916,14 +2883,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84291584"/>
+        <c:crossAx val="82977152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3157,11 +3123,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="84336000"/>
-        <c:axId val="84337792"/>
+        <c:axId val="83021184"/>
+        <c:axId val="83027072"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84336000"/>
+        <c:axId val="83021184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3170,7 +3136,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84337792"/>
+        <c:crossAx val="83027072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3178,7 +3144,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84337792"/>
+        <c:axId val="83027072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.4"/>
@@ -3190,14 +3156,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84336000"/>
+        <c:crossAx val="83021184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -5290,7 +5255,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="G1">
         <v>0.89686761547301896</v>
@@ -5312,19 +5277,19 @@
         <v>58</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D3" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="E3">
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="G3">
         <v>0.869760537441712</v>
@@ -5346,19 +5311,19 @@
         <v>58</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D5" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="E5">
         <v>6</v>
       </c>
       <c r="F5" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="G5">
         <v>0.71567167613915506</v>
@@ -5380,19 +5345,19 @@
         <v>58</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D7" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="E7">
         <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="G7">
         <v>0.83098116423615498</v>
@@ -5426,7 +5391,7 @@
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="G9">
         <v>0.86069421605066299</v>
@@ -5460,7 +5425,7 @@
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="G11">
         <v>0.86069421605066299</v>
@@ -5494,7 +5459,7 @@
         <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="G13">
         <v>0.63015050422690499</v>
@@ -5528,7 +5493,7 @@
         <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="G15">
         <v>0.81422837772090595</v>
@@ -5562,7 +5527,7 @@
         <v>6</v>
       </c>
       <c r="F17" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
       <c r="G17">
         <v>0.81422837772090595</v>
@@ -5596,7 +5561,7 @@
         <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="G19">
         <v>0.92683748390796294</v>
@@ -5630,7 +5595,7 @@
         <v>16</v>
       </c>
       <c r="F21" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="G21" s="9">
         <v>1.37954551275323E-4</v>
@@ -5654,7 +5619,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>46</v>
@@ -5663,7 +5628,7 @@
         <v>82</v>
       </c>
       <c r="F24" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>46</v>
@@ -9691,12 +9656,479 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:K18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.85546875" customWidth="1"/>
+    <col min="10" max="10" width="9.140625" style="5"/>
+    <col min="11" max="11" width="12.5703125" style="5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>654.15388057165399</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <v>68304.017232113707</v>
+      </c>
+      <c r="E3" s="3">
+        <v>11</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3">
+        <v>276</v>
+      </c>
+      <c r="J3" s="6">
+        <v>73.078364336124807</v>
+      </c>
+      <c r="K3" s="5">
+        <f>J3-$B$12</f>
+        <v>5.2345151851415039</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <v>41792.184277082502</v>
+      </c>
+      <c r="E4" s="3">
+        <v>11</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="I4" s="3">
+        <v>276</v>
+      </c>
+      <c r="J4" s="6">
+        <v>73.214883488416802</v>
+      </c>
+      <c r="K4" s="5">
+        <f t="shared" ref="K4:K9" si="0">J4-$B$12</f>
+        <v>5.3710343374334997</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <v>5338.88197466155</v>
+      </c>
+      <c r="E5" s="3">
+        <v>11</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1.6E-2</v>
+      </c>
+      <c r="I5" s="3">
+        <v>276</v>
+      </c>
+      <c r="J5" s="6">
+        <v>73.078364336124807</v>
+      </c>
+      <c r="K5" s="5">
+        <f t="shared" si="0"/>
+        <v>5.2345151851415039</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <v>80336.241527685605</v>
+      </c>
+      <c r="E6" s="3">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="I6" s="3">
+        <v>276</v>
+      </c>
+      <c r="J6" s="6">
+        <v>73.078364336124807</v>
+      </c>
+      <c r="K6" s="5">
+        <f t="shared" si="0"/>
+        <v>5.2345151851415039</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <v>10119.7512242143</v>
+      </c>
+      <c r="E7" s="3">
+        <v>11</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>4.2999999999999997E-2</v>
+      </c>
+      <c r="I7" s="3">
+        <v>276</v>
+      </c>
+      <c r="J7" s="6">
+        <v>73.078364336124807</v>
+      </c>
+      <c r="K7" s="5">
+        <f t="shared" si="0"/>
+        <v>5.2345151851415039</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <v>1171.26411207201</v>
+      </c>
+      <c r="E8" s="3">
+        <v>11</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="I8" s="3">
+        <v>276</v>
+      </c>
+      <c r="J8" s="6">
+        <v>73.078364336124807</v>
+      </c>
+      <c r="K8" s="5">
+        <f t="shared" si="0"/>
+        <v>5.2345151851415039</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <v>1954.5129955382599</v>
+      </c>
+      <c r="E9" s="3">
+        <v>11</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3">
+        <v>276</v>
+      </c>
+      <c r="J9" s="6">
+        <v>189.77376337187201</v>
+      </c>
+      <c r="K9" s="5">
+        <f t="shared" si="0"/>
+        <v>121.9299142208887</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10">
+        <v>36772.06857001</v>
+      </c>
+      <c r="E10" s="3">
+        <v>16</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3">
+        <v>2016</v>
+      </c>
+      <c r="J10" s="6">
+        <v>254.12871052899499</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10">
+        <v>39075.975794079801</v>
+      </c>
+      <c r="E11" s="3">
+        <v>16</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G11" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="H11" s="3">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="I11" s="3">
+        <v>2016</v>
+      </c>
+      <c r="J11" s="6">
+        <v>253.05912083634601</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10">
+        <v>67.843849150983303</v>
+      </c>
+      <c r="E12" s="3">
+        <v>16</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G12" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="H12" s="3">
+        <v>5.8000000000000003E-2</v>
+      </c>
+      <c r="I12" s="3">
+        <v>2016</v>
+      </c>
+      <c r="J12" s="6">
+        <v>253.33942827008201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10">
+        <v>1128.02727838647</v>
+      </c>
+      <c r="E13" s="3">
+        <v>16</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0.10100000000000001</v>
+      </c>
+      <c r="I13" s="3">
+        <v>2016</v>
+      </c>
+      <c r="J13" s="6">
+        <v>253.313898343413</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10">
+        <v>30813.567970830201</v>
+      </c>
+      <c r="E14" s="3">
+        <v>16</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0.09</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3">
+        <v>2016</v>
+      </c>
+      <c r="J14" s="6">
+        <v>603.27202570317297</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10">
+        <v>3250.3402066249</v>
+      </c>
+      <c r="E15" s="3">
+        <v>7</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3">
+        <v>7750</v>
+      </c>
+      <c r="J15" s="6">
+        <v>1190.1658976497899</v>
+      </c>
+      <c r="K15" s="5">
+        <f>J15-B8</f>
+        <v>18.901785577779947</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10">
+        <v>1504.0592287372899</v>
+      </c>
+      <c r="E16" s="3">
+        <v>7</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="I16" s="3">
+        <v>7750</v>
+      </c>
+      <c r="J16" s="6">
+        <v>1265.82062848792</v>
+      </c>
+      <c r="K16" s="5">
+        <f>J16-$B$8</f>
+        <v>94.556516415909982</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10">
+        <v>294.72573739410598</v>
+      </c>
+      <c r="E17" s="3">
+        <v>7</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="H17" s="3">
+        <v>9.4E-2</v>
+      </c>
+      <c r="I17" s="3">
+        <v>7750</v>
+      </c>
+      <c r="J17" s="6">
+        <v>1207.89349187894</v>
+      </c>
+      <c r="K17" s="5">
+        <f>J17-$B$8</f>
+        <v>36.629379806930046</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E18" s="3">
+        <v>7</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="G18" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3">
+        <v>7750</v>
+      </c>
+      <c r="J18" s="6">
+        <v>3034.7503193469101</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="P2" sqref="P2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9709,11 +10141,13 @@
     <col min="9" max="9" width="9.7109375" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="17.7109375" style="7" customWidth="1"/>
-    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="12" max="12" width="8.42578125" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="7"/>
     <col min="15" max="15" width="9.140625" customWidth="1"/>
+    <col min="16" max="16" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -9750,8 +10184,20 @@
       <c r="L1" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M1" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="P1" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>184</v>
+      </c>
+      <c r="R1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -9787,19 +10233,26 @@
         <v>0.96399999999999997</v>
       </c>
       <c r="L2" s="3">
-        <v>0.96399999999999997</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="M2" s="3">
-        <v>0.96399999999999997</v>
-      </c>
-      <c r="O2" s="3">
+        <v>0.96299999999999997</v>
+      </c>
+      <c r="N2" s="7">
+        <f>M2-K2</f>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="P2" s="3">
         <v>0.35</v>
       </c>
-      <c r="P2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q2" s="3">
+        <v>8.3000000000000004E-2</v>
+      </c>
+      <c r="R2" s="3">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -9835,19 +10288,26 @@
         <v>0.59099999999999997</v>
       </c>
       <c r="L3" s="3">
-        <v>0.52800000000000002</v>
+        <v>0.53700000000000003</v>
       </c>
       <c r="M3" s="3">
-        <v>0.52800000000000002</v>
-      </c>
-      <c r="O3" s="3">
+        <v>0.58899999999999997</v>
+      </c>
+      <c r="N3" s="7">
+        <f t="shared" ref="N3:N17" si="1">M3-K3</f>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="P3" s="3">
         <v>0.03</v>
       </c>
-      <c r="P3" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q3" s="3">
+        <v>0.29499999999999998</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0.29499999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -9883,19 +10343,26 @@
         <v>0.92</v>
       </c>
       <c r="L4" s="3">
-        <v>0.66300000000000003</v>
+        <v>0.54900000000000004</v>
       </c>
       <c r="M4" s="3">
-        <v>0.66300000000000003</v>
-      </c>
-      <c r="O4" s="3">
+        <v>0.74099999999999999</v>
+      </c>
+      <c r="N4" s="7">
+        <f t="shared" si="1"/>
+        <v>-0.17900000000000005</v>
+      </c>
+      <c r="P4" s="3">
         <v>0.05</v>
       </c>
-      <c r="P4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q4" s="3">
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0.19700000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -9931,19 +10398,26 @@
         <v>0.91900000000000004</v>
       </c>
       <c r="L5" s="3">
-        <v>0.85299999999999998</v>
+        <v>0.89900000000000002</v>
       </c>
       <c r="M5" s="3">
-        <v>0.85299999999999998</v>
-      </c>
-      <c r="O5" s="3">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="N5" s="7">
+        <f t="shared" si="1"/>
+        <v>2.399999999999991E-2</v>
+      </c>
+      <c r="P5" s="3">
         <v>0.2</v>
       </c>
-      <c r="P5" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q5" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -9982,16 +10456,23 @@
         <v>0.50900000000000001</v>
       </c>
       <c r="M6" s="3">
-        <v>0.50900000000000001</v>
-      </c>
-      <c r="O6" s="3">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="N6" s="7">
+        <f t="shared" si="1"/>
+        <v>3.7000000000000033E-2</v>
+      </c>
+      <c r="P6" s="3">
         <v>0.03</v>
       </c>
-      <c r="P6" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q6" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -10027,19 +10508,26 @@
         <v>0.93200000000000005</v>
       </c>
       <c r="L7" s="3">
-        <v>0.46899999999999997</v>
+        <v>0.67900000000000005</v>
       </c>
       <c r="M7" s="3">
-        <v>0.46899999999999997</v>
-      </c>
-      <c r="O7" s="3">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="N7" s="7">
+        <f t="shared" si="1"/>
+        <v>-7.0000000000000062E-3</v>
+      </c>
+      <c r="P7" s="3">
         <v>0.09</v>
       </c>
-      <c r="P7" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q7" s="3">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0.34399999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -10075,19 +10563,26 @@
         <v>0.88700000000000001</v>
       </c>
       <c r="L8" s="3">
-        <v>0.88800000000000001</v>
+        <v>0.89600000000000002</v>
       </c>
       <c r="M8" s="3">
-        <v>0.88800000000000001</v>
-      </c>
-      <c r="O8" s="3">
+        <v>0.89300000000000002</v>
+      </c>
+      <c r="N8" s="7">
+        <f t="shared" si="1"/>
+        <v>6.0000000000000053E-3</v>
+      </c>
+      <c r="P8" s="3">
         <v>0.15</v>
       </c>
-      <c r="P8" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q8" s="3">
+        <v>0.01</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -10123,19 +10618,26 @@
         <v>0.63600000000000001</v>
       </c>
       <c r="L9" s="3">
-        <v>0.58899999999999997</v>
+        <v>0.626</v>
       </c>
       <c r="M9" s="3">
-        <v>0.58899999999999997</v>
-      </c>
-      <c r="O9" s="3">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="N9" s="7">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000071E-3</v>
+      </c>
+      <c r="P9" s="3">
         <v>0.3</v>
       </c>
-      <c r="P9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q9" s="3">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0.44700000000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -10171,19 +10673,26 @@
         <v>0.66400000000000003</v>
       </c>
       <c r="L10" s="3">
-        <v>0.48899999999999999</v>
+        <v>0.49399999999999999</v>
       </c>
       <c r="M10" s="3">
-        <v>0.48899999999999999</v>
-      </c>
-      <c r="O10" s="3">
+        <v>0.71299999999999997</v>
+      </c>
+      <c r="N10" s="7">
+        <f t="shared" si="1"/>
+        <v>4.8999999999999932E-2</v>
+      </c>
+      <c r="P10" s="3">
         <v>0.05</v>
       </c>
-      <c r="P10" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q10" s="3">
+        <v>0.41699999999999998</v>
+      </c>
+      <c r="R10" s="3">
+        <v>0.41699999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -10219,19 +10728,26 @@
         <v>0.81499999999999995</v>
       </c>
       <c r="L11" s="3">
-        <v>0.59599999999999997</v>
+        <v>0.71699999999999997</v>
       </c>
       <c r="M11" s="3">
-        <v>0.59599999999999997</v>
-      </c>
-      <c r="O11" s="3">
+        <v>0.76600000000000001</v>
+      </c>
+      <c r="N11" s="7">
+        <f t="shared" si="1"/>
+        <v>-4.8999999999999932E-2</v>
+      </c>
+      <c r="P11" s="3">
         <v>0.05</v>
       </c>
-      <c r="P11" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q11" s="3">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="R11" s="3">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -10270,16 +10786,23 @@
         <v>0.83199999999999996</v>
       </c>
       <c r="M12" s="3">
-        <v>0.83199999999999996</v>
-      </c>
-      <c r="O12" s="3">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="N12" s="7">
+        <f t="shared" si="1"/>
+        <v>-1.0000000000000009E-3</v>
+      </c>
+      <c r="P12" s="3">
         <v>0.1</v>
       </c>
-      <c r="P12" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q12" s="3">
+        <v>1E-3</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -10315,19 +10838,26 @@
         <v>0.85099999999999998</v>
       </c>
       <c r="L13" s="3">
-        <v>0.83299999999999996</v>
+        <v>0.83</v>
       </c>
       <c r="M13" s="3">
-        <v>0.83299999999999996</v>
-      </c>
-      <c r="O13" s="3">
+        <v>0.85699999999999998</v>
+      </c>
+      <c r="N13" s="7">
+        <f t="shared" si="1"/>
+        <v>6.0000000000000053E-3</v>
+      </c>
+      <c r="P13" s="3">
         <v>0.25</v>
       </c>
-      <c r="P13" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q13" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -10363,19 +10893,26 @@
         <v>0.97299999999999998</v>
       </c>
       <c r="L14" s="3">
-        <v>0.77200000000000002</v>
+        <v>0.67700000000000005</v>
       </c>
       <c r="M14" s="3">
-        <v>0.77200000000000002</v>
-      </c>
-      <c r="O14" s="3">
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="N14" s="7">
+        <f t="shared" si="1"/>
+        <v>-0.11799999999999999</v>
+      </c>
+      <c r="P14" s="3">
         <v>0.05</v>
       </c>
-      <c r="P14" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q14" s="3">
+        <v>0.05</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -10411,19 +10948,26 @@
         <v>0.65500000000000003</v>
       </c>
       <c r="L15" s="3">
-        <v>0.63900000000000001</v>
+        <v>0.63200000000000001</v>
       </c>
       <c r="M15" s="3">
-        <v>0.63900000000000001</v>
-      </c>
-      <c r="O15" s="3">
+        <v>0.63600000000000001</v>
+      </c>
+      <c r="N15" s="7">
+        <f t="shared" si="1"/>
+        <v>-1.9000000000000017E-2</v>
+      </c>
+      <c r="P15" s="3">
         <v>0.15</v>
       </c>
-      <c r="P15" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="Q15" s="3">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -10459,19 +11003,26 @@
         <v>0.89900000000000002</v>
       </c>
       <c r="L16" s="3">
-        <v>0.84399999999999997</v>
+        <v>0.89300000000000002</v>
       </c>
       <c r="M16" s="3">
-        <v>0.84399999999999997</v>
-      </c>
-      <c r="O16" s="3">
+        <v>0.9</v>
+      </c>
+      <c r="N16" s="7">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="P16" s="3">
         <v>0.25</v>
       </c>
-      <c r="P16" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q16" s="3">
+        <v>0.25</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -10507,22 +11058,26 @@
         <v>0.73699999999999999</v>
       </c>
       <c r="L17" s="3">
-        <v>0.71699999999999997</v>
+        <v>0.73099999999999998</v>
       </c>
       <c r="M17" s="3">
-        <v>0.71699999999999997</v>
-      </c>
-      <c r="O17" s="3">
+        <v>0.73099999999999998</v>
+      </c>
+      <c r="N17" s="7">
+        <f t="shared" si="1"/>
+        <v>-6.0000000000000053E-3</v>
+      </c>
+      <c r="P17" s="3">
         <v>0.09</v>
       </c>
-      <c r="P17" t="s">
-        <v>183</v>
-      </c>
-      <c r="S17" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="Q17" s="3">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="R17" s="3">
+        <v>0.10100000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="C18">
         <f>AVERAGE(C2:C17)</f>
         <v>0.77593299213666334</v>
@@ -10537,6 +11092,10 @@
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="7"/>
+      <c r="N18" s="7">
+        <f>SUM(N2:N17)</f>
+        <v>-0.25100000000000011</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/workspace/i2b2.2008/data/04-30-AmbertVsCui.xlsx
+++ b/workspace/i2b2.2008/data/04-30-AmbertVsCui.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="195" windowWidth="12435" windowHeight="6885" tabRatio="921" activeTab="1"/>
+    <workbookView xWindow="480" yWindow="195" windowWidth="12435" windowHeight="6885" tabRatio="921" firstSheet="5" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="05-09 cutoffVsF1" sheetId="9" r:id="rId1"/>
@@ -20,13 +20,18 @@
     <sheet name="gallstones-features" sheetId="13" r:id="rId11"/>
     <sheet name="Sheet3" sheetId="14" r:id="rId12"/>
     <sheet name="Sheet4" sheetId="15" r:id="rId13"/>
+    <sheet name="Sheet5" sheetId="16" r:id="rId14"/>
+    <sheet name="Sheet6" sheetId="17" r:id="rId15"/>
   </sheets>
+  <definedNames>
+    <definedName name="TTY.ZFINSY.tty_class" localSheetId="14">Sheet6!$A$1</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="192">
   <si>
     <t>label</t>
   </si>
@@ -587,6 +592,21 @@
   </si>
   <si>
     <t>hzv cutoff</t>
+  </si>
+  <si>
+    <t>kern-outercuiword-filteredlin</t>
+  </si>
+  <si>
+    <t>kern-neword</t>
+  </si>
+  <si>
+    <t>ambert test</t>
+  </si>
+  <si>
+    <t>but cv was worse than test for ambert</t>
+  </si>
+  <si>
+    <t>hzv wrong</t>
   </si>
 </sst>
 </file>
@@ -1082,7 +1102,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1104,6 +1124,7 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1443,11 +1464,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="82381824"/>
-        <c:axId val="82391808"/>
+        <c:axId val="91525504"/>
+        <c:axId val="91527040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="82381824"/>
+        <c:axId val="91525504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1457,12 +1478,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82391808"/>
+        <c:crossAx val="91527040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="82391808"/>
+        <c:axId val="91527040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1475,13 +1496,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82381824"/>
+        <c:crossAx val="91525504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1511,6 +1533,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1662,11 +1685,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="83931904"/>
-        <c:axId val="83933440"/>
+        <c:axId val="92718976"/>
+        <c:axId val="92720512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="83931904"/>
+        <c:axId val="92718976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1676,12 +1699,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83933440"/>
+        <c:crossAx val="92720512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="83933440"/>
+        <c:axId val="92720512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1694,13 +1717,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83931904"/>
+        <c:crossAx val="92718976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2037,11 +2061,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="84067456"/>
-        <c:axId val="84068992"/>
+        <c:axId val="93313280"/>
+        <c:axId val="91557888"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="84067456"/>
+        <c:axId val="93313280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2050,7 +2074,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84068992"/>
+        <c:crossAx val="91557888"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2058,7 +2082,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="84068992"/>
+        <c:axId val="91557888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2069,13 +2093,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="84067456"/>
+        <c:crossAx val="93313280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2378,11 +2403,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="83176832"/>
-        <c:axId val="83190912"/>
+        <c:axId val="91581056"/>
+        <c:axId val="91595136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="83176832"/>
+        <c:axId val="91581056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2391,7 +2416,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83190912"/>
+        <c:crossAx val="91595136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2399,7 +2424,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83190912"/>
+        <c:axId val="91595136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2411,13 +2436,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83176832"/>
+        <c:crossAx val="91581056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2849,11 +2875,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="82977152"/>
-        <c:axId val="82978688"/>
+        <c:axId val="93410816"/>
+        <c:axId val="93412352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="82977152"/>
+        <c:axId val="93410816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2862,7 +2888,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82978688"/>
+        <c:crossAx val="93412352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2870,7 +2896,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="82978688"/>
+        <c:axId val="93412352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2883,13 +2909,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="82977152"/>
+        <c:crossAx val="93410816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3123,11 +3150,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="83021184"/>
-        <c:axId val="83027072"/>
+        <c:axId val="93721344"/>
+        <c:axId val="93722880"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="83021184"/>
+        <c:axId val="93721344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3136,7 +3163,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83027072"/>
+        <c:crossAx val="93722880"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3144,7 +3171,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="83027072"/>
+        <c:axId val="93722880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.4"/>
@@ -3156,13 +3183,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="83021184"/>
+        <c:crossAx val="93721344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -3321,16 +3349,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4858,7 +4886,7 @@
   <dimension ref="B1:I27"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9661,7 +9689,7 @@
   <dimension ref="A2:K18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10123,12 +10151,724 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="29.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C1" s="3">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3">
+        <v>19</v>
+      </c>
+      <c r="E1" s="3">
+        <v>0.295358402866296</v>
+      </c>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3">
+        <v>19</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0.66500533921850702</v>
+      </c>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>2</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0.38881980545425898</v>
+      </c>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>19</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0.22049452184122201</v>
+      </c>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3">
+        <v>19</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.24904911543364999</v>
+      </c>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0.68151160924651</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>3</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>19</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0.55788809138159601</v>
+      </c>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>3</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C8" s="3">
+        <v>2</v>
+      </c>
+      <c r="D8" s="3">
+        <v>19</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0.54093936215278604</v>
+      </c>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C9" s="3">
+        <v>2</v>
+      </c>
+      <c r="D9" s="3">
+        <v>19</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0.229983829830428</v>
+      </c>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>4</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C10" s="3">
+        <v>2</v>
+      </c>
+      <c r="D10" s="3">
+        <v>19</v>
+      </c>
+      <c r="E10" s="3">
+        <v>0.24871625942832501</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>2</v>
+      </c>
+      <c r="E11" s="3">
+        <v>0.21740250944221901</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>19</v>
+      </c>
+      <c r="E12" s="3">
+        <v>0.26892780962545498</v>
+      </c>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" s="3">
+        <v>2</v>
+      </c>
+      <c r="D13" s="3">
+        <v>19</v>
+      </c>
+      <c r="E13" s="3">
+        <v>0.270945146327843</v>
+      </c>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>2</v>
+      </c>
+      <c r="E14" s="3">
+        <v>0.465978012589851</v>
+      </c>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>19</v>
+      </c>
+      <c r="E15" s="3">
+        <v>0.60161291039665798</v>
+      </c>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>5</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2</v>
+      </c>
+      <c r="D16" s="3">
+        <v>19</v>
+      </c>
+      <c r="E16" s="3">
+        <v>0.64110898456980503</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>6</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>19</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.13258252147247801</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
+        <v>6</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <v>19</v>
+      </c>
+      <c r="E18" s="3">
+        <v>5.2367227485440801E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>9</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.24392702472467201</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
+        <v>9</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C20" s="3">
+        <v>1</v>
+      </c>
+      <c r="D20" s="3">
+        <v>19</v>
+      </c>
+      <c r="E20" s="3">
+        <v>0.19979828537479899</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>9</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C21" s="3">
+        <v>2</v>
+      </c>
+      <c r="D21" s="3">
+        <v>19</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0.29300794961329202</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
+        <v>9</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C22" s="3">
+        <v>1</v>
+      </c>
+      <c r="D22" s="3">
+        <v>2</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0.67815791510983803</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>9</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C23" s="3">
+        <v>1</v>
+      </c>
+      <c r="D23" s="3">
+        <v>19</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0.35225717113826099</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
+        <v>9</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C24" s="3">
+        <v>2</v>
+      </c>
+      <c r="D24" s="3">
+        <v>19</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0.45186115987946801</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="3">
+        <v>3741</v>
+      </c>
+      <c r="B1" s="3">
+        <v>3741</v>
+      </c>
+      <c r="C1">
+        <f>B1-A1</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>185858</v>
+      </c>
+      <c r="B2" s="3">
+        <v>185858</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C16" si="0">B2-TTY.ZFINSY.tty_class</f>
+        <v>182117</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>276</v>
+      </c>
+      <c r="B3" s="3">
+        <v>276</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="0"/>
+        <v>-3465</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
+        <v>7464</v>
+      </c>
+      <c r="B4" s="3">
+        <v>7464</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>3723</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
+        <v>150102</v>
+      </c>
+      <c r="B5" s="3">
+        <v>150102</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>146361</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
+        <v>17493</v>
+      </c>
+      <c r="B6" s="3">
+        <v>17493</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>13752</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
+        <v>8646</v>
+      </c>
+      <c r="B7" s="3">
+        <v>8646</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>4905</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
+        <v>2016</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2016</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>-1725</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>216811</v>
+      </c>
+      <c r="B9" s="3">
+        <v>216811</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>213070</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
+        <v>188805</v>
+      </c>
+      <c r="B10" s="3">
+        <v>188805</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>185064</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>30628</v>
+      </c>
+      <c r="B11" s="3">
+        <v>30628</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>26887</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>232221</v>
+      </c>
+      <c r="B12" s="3">
+        <v>232221</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>228480</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>90951</v>
+      </c>
+      <c r="B13" s="3">
+        <v>90951</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>87210</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>7750</v>
+      </c>
+      <c r="B14" s="3">
+        <v>7750</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>4009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
+        <v>9730</v>
+      </c>
+      <c r="B15" s="3">
+        <v>9730</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>5989</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>78424</v>
+      </c>
+      <c r="B16" s="3">
+        <v>79009</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>75268</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R18"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P2" sqref="P2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10139,15 +10879,15 @@
     <col min="5" max="7" width="9.140625" hidden="1" customWidth="1"/>
     <col min="8" max="8" width="15.28515625" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="9.7109375" customWidth="1"/>
-    <col min="10" max="10" width="13" customWidth="1"/>
-    <col min="11" max="11" width="17.7109375" style="7" customWidth="1"/>
-    <col min="12" max="12" width="8.42578125" customWidth="1"/>
-    <col min="13" max="13" width="9.140625" style="7"/>
-    <col min="15" max="15" width="9.140625" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" customWidth="1"/>
+    <col min="11" max="11" width="8" style="7" customWidth="1"/>
+    <col min="12" max="12" width="17.28515625" customWidth="1"/>
+    <col min="13" max="13" width="10.140625" style="7" customWidth="1"/>
+    <col min="15" max="15" width="13.140625" customWidth="1"/>
     <col min="16" max="16" width="12.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -10187,6 +10927,12 @@
       <c r="M1" s="7" t="s">
         <v>183</v>
       </c>
+      <c r="N1" t="s">
+        <v>187</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>188</v>
+      </c>
       <c r="P1" t="s">
         <v>186</v>
       </c>
@@ -10196,8 +10942,11 @@
       <c r="R1" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -10238,9 +10987,11 @@
       <c r="M2" s="3">
         <v>0.96299999999999997</v>
       </c>
-      <c r="N2" s="7">
-        <f>M2-K2</f>
-        <v>-1.0000000000000009E-3</v>
+      <c r="N2" s="3">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0.96199999999999997</v>
       </c>
       <c r="P2" s="3">
         <v>0.35</v>
@@ -10251,8 +11002,15 @@
       <c r="R2" s="3">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U2">
+        <v>0.97</v>
+      </c>
+      <c r="V2" s="7">
+        <f>MAX(C2:N2)-U2</f>
+        <v>-6.0000000000000053E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -10293,9 +11051,11 @@
       <c r="M3" s="3">
         <v>0.58899999999999997</v>
       </c>
-      <c r="N3" s="7">
-        <f t="shared" ref="N3:N17" si="1">M3-K3</f>
-        <v>-2.0000000000000018E-3</v>
+      <c r="N3" s="3">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0.57099999999999995</v>
       </c>
       <c r="P3" s="3">
         <v>0.03</v>
@@ -10306,8 +11066,15 @@
       <c r="R3" s="3">
         <v>0.29499999999999998</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U3">
+        <v>0.63</v>
+      </c>
+      <c r="V3" s="7">
+        <f t="shared" ref="V3:V17" si="1">MAX(C3:N3)-U3</f>
+        <v>-3.1919966485877027E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -10348,9 +11115,11 @@
       <c r="M4" s="3">
         <v>0.74099999999999999</v>
       </c>
-      <c r="N4" s="7">
-        <f t="shared" si="1"/>
-        <v>-0.17900000000000005</v>
+      <c r="N4" s="3">
+        <v>0.66500000000000004</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0.53800000000000003</v>
       </c>
       <c r="P4" s="3">
         <v>0.05</v>
@@ -10361,8 +11130,15 @@
       <c r="R4" s="3">
         <v>0.19700000000000001</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U4">
+        <v>0.61199999999999999</v>
+      </c>
+      <c r="V4" s="7">
+        <f t="shared" si="1"/>
+        <v>0.30800000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -10403,9 +11179,11 @@
       <c r="M5" s="3">
         <v>0.94299999999999995</v>
       </c>
-      <c r="N5" s="7">
-        <f t="shared" si="1"/>
-        <v>2.399999999999991E-2</v>
+      <c r="N5" s="3">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0.92300000000000004</v>
       </c>
       <c r="P5" s="3">
         <v>0.2</v>
@@ -10416,9 +11194,16 @@
       <c r="R5" s="3">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="U5">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="V5" s="7">
+        <f t="shared" si="1"/>
+        <v>7.9999999999998961E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B6">
@@ -10458,11 +11243,13 @@
       <c r="M6" s="3">
         <v>0.61499999999999999</v>
       </c>
-      <c r="N6" s="7">
-        <f t="shared" si="1"/>
-        <v>3.7000000000000033E-2</v>
-      </c>
-      <c r="P6" s="3">
+      <c r="N6" s="3">
+        <v>0.59699999999999998</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="P6" s="4">
         <v>0.03</v>
       </c>
       <c r="Q6" s="3">
@@ -10471,8 +11258,15 @@
       <c r="R6" s="3">
         <v>0.28999999999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U6">
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="V6" s="7">
+        <f t="shared" si="1"/>
+        <v>-0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -10513,9 +11307,11 @@
       <c r="M7" s="3">
         <v>0.92500000000000004</v>
       </c>
-      <c r="N7" s="7">
-        <f t="shared" si="1"/>
-        <v>-7.0000000000000062E-3</v>
+      <c r="N7" s="3">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0.91200000000000003</v>
       </c>
       <c r="P7" s="3">
         <v>0.09</v>
@@ -10526,8 +11322,15 @@
       <c r="R7" s="3">
         <v>0.34399999999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U7">
+        <v>0.96099999999999997</v>
+      </c>
+      <c r="V7" s="7">
+        <f t="shared" si="1"/>
+        <v>-2.300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -10568,9 +11371,11 @@
       <c r="M8" s="3">
         <v>0.89300000000000002</v>
       </c>
-      <c r="N8" s="7">
-        <f t="shared" si="1"/>
-        <v>6.0000000000000053E-3</v>
+      <c r="N8" s="3">
+        <v>0.89400000000000002</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0.89500000000000002</v>
       </c>
       <c r="P8" s="3">
         <v>0.15</v>
@@ -10581,9 +11386,16 @@
       <c r="R8" s="3">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="U8">
+        <v>0.57899999999999996</v>
+      </c>
+      <c r="V8" s="7">
+        <f t="shared" si="1"/>
+        <v>0.31700000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B9">
@@ -10623,9 +11435,11 @@
       <c r="M9" s="3">
         <v>0.64400000000000002</v>
       </c>
-      <c r="N9" s="7">
-        <f t="shared" si="1"/>
-        <v>8.0000000000000071E-3</v>
+      <c r="N9" s="3">
+        <v>0.64600000000000002</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0.65200000000000002</v>
       </c>
       <c r="P9" s="3">
         <v>0.3</v>
@@ -10636,9 +11450,19 @@
       <c r="R9" s="3">
         <v>0.44700000000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+      <c r="U9" s="1">
+        <v>0.98099999999999998</v>
+      </c>
+      <c r="V9" s="7">
+        <f t="shared" si="1"/>
+        <v>-0.32818034860612799</v>
+      </c>
+      <c r="W9" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B10">
@@ -10678,9 +11502,11 @@
       <c r="M10" s="3">
         <v>0.71299999999999997</v>
       </c>
-      <c r="N10" s="7">
-        <f t="shared" si="1"/>
-        <v>4.8999999999999932E-2</v>
+      <c r="N10" s="3">
+        <v>0.70199999999999996</v>
+      </c>
+      <c r="O10" s="3">
+        <v>0.55500000000000005</v>
       </c>
       <c r="P10" s="3">
         <v>0.05</v>
@@ -10691,9 +11517,16 @@
       <c r="R10" s="3">
         <v>0.41699999999999998</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="U10" s="1">
+        <v>0.91200000000000003</v>
+      </c>
+      <c r="V10" s="7">
+        <f t="shared" si="1"/>
+        <v>-0.19900000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B11">
@@ -10733,9 +11566,11 @@
       <c r="M11" s="3">
         <v>0.76600000000000001</v>
       </c>
-      <c r="N11" s="7">
-        <f t="shared" si="1"/>
-        <v>-4.8999999999999932E-2</v>
+      <c r="N11" s="3">
+        <v>0.79900000000000004</v>
+      </c>
+      <c r="O11" s="3">
+        <v>0.61299999999999999</v>
       </c>
       <c r="P11" s="3">
         <v>0.05</v>
@@ -10746,9 +11581,16 @@
       <c r="R11" s="3">
         <v>3.6999999999999998E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="U11" s="1">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="V11" s="7">
+        <f t="shared" si="1"/>
+        <v>-8.4000000000000075E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
         <v>4</v>
       </c>
       <c r="B12">
@@ -10788,9 +11630,11 @@
       <c r="M12" s="3">
         <v>0.83099999999999996</v>
       </c>
-      <c r="N12" s="7">
-        <f t="shared" si="1"/>
-        <v>-1.0000000000000009E-3</v>
+      <c r="N12" s="3">
+        <v>0.83099999999999996</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0.83099999999999996</v>
       </c>
       <c r="P12" s="3">
         <v>0.1</v>
@@ -10801,8 +11645,15 @@
       <c r="R12" s="3">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U12" s="11">
+        <v>0.876</v>
+      </c>
+      <c r="V12" s="7">
+        <f t="shared" si="1"/>
+        <v>4.9000000000000044E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -10843,9 +11694,11 @@
       <c r="M13" s="3">
         <v>0.85699999999999998</v>
       </c>
-      <c r="N13" s="7">
-        <f t="shared" si="1"/>
-        <v>6.0000000000000053E-3</v>
+      <c r="N13" s="3">
+        <v>0.86099999999999999</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0.81</v>
       </c>
       <c r="P13" s="3">
         <v>0.25</v>
@@ -10856,8 +11709,15 @@
       <c r="R13" s="3">
         <v>0.28000000000000003</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U13">
+        <v>0.63100000000000001</v>
+      </c>
+      <c r="V13" s="7">
+        <f t="shared" si="1"/>
+        <v>0.22999999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -10898,9 +11758,11 @@
       <c r="M14" s="3">
         <v>0.85499999999999998</v>
       </c>
-      <c r="N14" s="7">
-        <f t="shared" si="1"/>
-        <v>-0.11799999999999999</v>
+      <c r="N14" s="3">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0.503</v>
       </c>
       <c r="P14" s="3">
         <v>0.05</v>
@@ -10911,8 +11773,15 @@
       <c r="R14" s="3">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U14">
+        <v>0.97299999999999998</v>
+      </c>
+      <c r="V14" s="7">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000018E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -10953,9 +11822,11 @@
       <c r="M15" s="3">
         <v>0.63600000000000001</v>
       </c>
-      <c r="N15" s="7">
-        <f t="shared" si="1"/>
-        <v>-1.9000000000000017E-2</v>
+      <c r="N15" s="3">
+        <v>0.64900000000000002</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0.622</v>
       </c>
       <c r="P15" s="3">
         <v>0.15</v>
@@ -10966,8 +11837,15 @@
       <c r="R15" s="3">
         <v>0.23</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U15">
+        <v>0.65300000000000002</v>
+      </c>
+      <c r="V15" s="7">
+        <f t="shared" si="1"/>
+        <v>2.0000000000000018E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -11008,9 +11886,11 @@
       <c r="M16" s="3">
         <v>0.9</v>
       </c>
-      <c r="N16" s="7">
-        <f t="shared" si="1"/>
-        <v>1.0000000000000009E-3</v>
+      <c r="N16" s="3">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="O16" s="3">
+        <v>0.88600000000000001</v>
       </c>
       <c r="P16" s="3">
         <v>0.25</v>
@@ -11021,8 +11901,15 @@
       <c r="R16" s="3">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U16">
+        <v>0.623</v>
+      </c>
+      <c r="V16" s="7">
+        <f t="shared" si="1"/>
+        <v>0.29999437668031703</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -11063,9 +11950,11 @@
       <c r="M17" s="3">
         <v>0.73099999999999998</v>
       </c>
-      <c r="N17" s="7">
-        <f t="shared" si="1"/>
-        <v>-6.0000000000000053E-3</v>
+      <c r="N17" s="3">
+        <v>0.72099999999999997</v>
+      </c>
+      <c r="O17" s="3">
+        <v>0.71599999999999997</v>
       </c>
       <c r="P17" s="3">
         <v>0.09</v>
@@ -11076,8 +11965,15 @@
       <c r="R17" s="3">
         <v>0.10100000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U17">
+        <v>0.72499999999999998</v>
+      </c>
+      <c r="V17" s="7">
+        <f t="shared" si="1"/>
+        <v>1.7080965200868992E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C18">
         <f>AVERAGE(C2:C17)</f>
         <v>0.77593299213666334</v>
@@ -11092,9 +11988,10 @@
       </c>
       <c r="I18" s="8"/>
       <c r="J18" s="7"/>
-      <c r="N18" s="7">
-        <f>SUM(N2:N17)</f>
-        <v>-0.25100000000000011</v>
+      <c r="N18" s="7"/>
+      <c r="V18">
+        <f>SUM(V2:V17)</f>
+        <v>0.26097502678918083</v>
       </c>
     </row>
   </sheetData>
@@ -13509,7 +14406,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="E1:F1048576"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14529,18 +15426,22 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="A7" activeCellId="2" sqref="A2:XFD2 A4:XFD4 A7:XFD7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="15690" topLeftCell="R1"/>
+      <selection activeCell="J4" sqref="J4"/>
+      <selection pane="topRight" activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="22.28515625" customWidth="1"/>
     <col min="4" max="4" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="23" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -14557,7 +15458,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -14573,8 +15474,22 @@
       <c r="E2">
         <v>0.97</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" s="3">
+        <v>0.97</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H2">
+        <f>IF(G2&lt;&gt;"bag-cuiword",B2,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <f>F2-E2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -14590,8 +15505,25 @@
       <c r="E3">
         <v>0.63</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" s="3">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H17" si="0">IF(G3&lt;&gt;"bag-cuiword",B3,"")</f>
+        <v/>
+      </c>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I17" si="1">F3-E3</f>
+        <v>-4.3000000000000038E-2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -14607,8 +15539,22 @@
       <c r="E4">
         <v>0.61199999999999999</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F4" s="3">
+        <v>0.60099999999999998</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I4">
+        <f t="shared" si="1"/>
+        <v>-1.100000000000001E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>12</v>
       </c>
@@ -14624,8 +15570,22 @@
       <c r="E5">
         <v>0.93500000000000005</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" s="3">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="1"/>
+        <v>-9.000000000000008E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -14641,8 +15601,22 @@
       <c r="E6">
         <v>0.91500000000000004</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" s="3">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="1"/>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -14658,8 +15632,22 @@
       <c r="E7">
         <v>0.96099999999999997</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7" s="3">
+        <v>0.96199999999999997</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="1"/>
+        <v>1.0000000000000009E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -14675,8 +15663,22 @@
       <c r="E8">
         <v>0.57899999999999996</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8" s="4">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="I8" s="1">
+        <f t="shared" si="1"/>
+        <v>6.800000000000006E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -14692,8 +15694,22 @@
       <c r="E9">
         <v>0.98099999999999998</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="3">
+        <v>0.96399999999999997</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>-1.7000000000000015E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -14709,8 +15725,22 @@
       <c r="E10">
         <v>0.91200000000000003</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="3">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="1"/>
+        <v>-1.3000000000000012E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>3</v>
       </c>
@@ -14726,8 +15756,22 @@
       <c r="E11">
         <v>0.89900000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="3">
+        <v>0.84</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="1"/>
+        <v>-5.9000000000000052E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>4</v>
       </c>
@@ -14743,8 +15787,25 @@
       <c r="E12">
         <v>0.876</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="3">
+        <v>0.52800000000000002</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.34799999999999998</v>
+      </c>
+      <c r="J12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -14760,8 +15821,22 @@
       <c r="E13">
         <v>0.63100000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="3">
+        <v>0.624</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="1"/>
+        <v>-7.0000000000000062E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -14777,8 +15852,22 @@
       <c r="E14">
         <v>0.97299999999999998</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F14" s="3">
+        <v>0.96599999999999997</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="1"/>
+        <v>-7.0000000000000062E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>7</v>
       </c>
@@ -14794,8 +15883,25 @@
       <c r="E15">
         <v>0.65300000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F15" s="3">
+        <v>0.64700000000000002</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I15">
+        <f t="shared" si="1"/>
+        <v>-6.0000000000000053E-3</v>
+      </c>
+      <c r="J15" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -14811,8 +15917,22 @@
       <c r="E16">
         <v>0.623</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F16" s="3">
+        <v>0.626</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="H16">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000027E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -14828,9 +15948,30 @@
       <c r="E17">
         <v>0.72499999999999998</v>
       </c>
+      <c r="F17" s="4">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="I17">
+        <f t="shared" si="1"/>
+        <v>0.20100000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <f>SUM(I2:I17)-I12</f>
+        <v>9.8999999999999977E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>